--- a/Common/wwwroot/data/xlsio/excel-to-pdf.xlsx
+++ b/Common/wwwroot/data/xlsio/excel-to-pdf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sample browser soruces for change\ej2-blazor-samples\Common\wwwroot\data\xlsio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sample browser soruces for change\ej2-blazor-samples-dev\Common\wwwroot\data\xlsio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76824A4-2203-4CF7-B53F-4E278136EC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2151A32E-1CF9-4B3E-A931-A11C2A1D59AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
@@ -39,11 +39,11 @@
     <definedName name="Macro1">Macro1</definedName>
     <definedName name="Macro2">Macro2</definedName>
     <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -67,7 +67,7 @@
     <author>Johnson Manohar</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D5689AB4-1294-447B-94F2-362711066B67}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{D5689AB4-1294-447B-94F2-362711066B67}">
       <text>
         <r>
           <rPr>
@@ -855,7 +855,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="170" fontId="4" fillId="13" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -955,6 +955,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="amount" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2494,6 +2495,61 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2100512-E8DE-DA4E-A594-2AB948984F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="1962150" cy="771524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2536,9 +2592,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="labuser" refreshedDate="43532.512713310185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="29" xr:uid="{08B72039-5352-49F3-8C28-BC72CFDD421B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yaavann Vignesh Sethuraman" refreshedDate="45266.52256759259" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="29" xr:uid="{08B72039-5352-49F3-8C28-BC72CFDD421B}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H30" sheet="Data"/>
+    <worksheetSource ref="A6:H35" sheet="Data"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Date" numFmtId="170">
@@ -2891,7 +2947,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05F4A71A-7984-40A0-87A6-553C83BD34F1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05F4A71A-7984-40A0-87A6-553C83BD34F1}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C10:L27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="170" showAll="0"/>
@@ -3035,12 +3091,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83942FD3-A473-4D9F-A497-D7263F9D4E58}" name="Table1" displayName="Table1" ref="A1:H30" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Currency_TapePivot">
-  <autoFilter ref="A1:H30" xr:uid="{A5BC75BE-14FE-45D2-B35A-EC20B546993F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83942FD3-A473-4D9F-A497-D7263F9D4E58}" name="Table1" displayName="Table1" ref="A6:H35" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Currency_TapePivot">
+  <autoFilter ref="A6:H35" xr:uid="{A5BC75BE-14FE-45D2-B35A-EC20B546993F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4B666CE4-D4BF-47FE-A3DA-94DEFA2D661F}" name="Date" dataDxfId="7" dataCellStyle="Normal_PivotSizeTest"/>
     <tableColumn id="2" xr3:uid="{65F08137-D4DE-408C-A045-1A94B02EC181}" name="Weekday" dataDxfId="6" dataCellStyle="Normal_PivotSizeTest">
-      <calculatedColumnFormula>TEXT(A2,"dddd")</calculatedColumnFormula>
+      <calculatedColumnFormula>TEXT(A7,"dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{23627D32-E1A8-4F2D-9BD5-B54B55B43FC5}" name="Region" dataDxfId="5" dataCellStyle="Normal_Sheet1"/>
     <tableColumn id="4" xr3:uid="{50A55DAE-0048-4A90-B657-6667BBF289F2}" name="Employee" dataDxfId="4" dataCellStyle="Normal_Sheet1"/>
@@ -3048,7 +3104,7 @@
     <tableColumn id="6" xr3:uid="{6377E0B3-21AD-4672-96D8-452BDD45470B}" name="Units" dataDxfId="2" dataCellStyle="Normal_PivotSizeTest"/>
     <tableColumn id="7" xr3:uid="{ABC2151F-4EC5-495D-9078-F02A02997837}" name="Unit Cost" dataDxfId="1" dataCellStyle="Currency"/>
     <tableColumn id="8" xr3:uid="{2C662E03-7C14-4AA2-BC91-9B6772686E41}" name="Total" dataDxfId="0" dataCellStyle="Normal_PivotSizeTest">
-      <calculatedColumnFormula>G2*F2</calculatedColumnFormula>
+      <calculatedColumnFormula>G7*F7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3427,10 +3483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A6:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3445,840 +3501,840 @@
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A1" s="16" t="s">
+    <row r="6" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H6" s="39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.5" thickTop="1">
-      <c r="A2" s="1">
+    <row r="7" spans="1:8" ht="13.5" thickTop="1">
+      <c r="A7" s="1">
         <v>39431</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2:B30" si="0">TEXT(A2,"dddd")</f>
+      <c r="B7" s="1" t="str">
+        <f t="shared" ref="B7:B35" si="0">TEXT(A7,"dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F7" s="4">
         <v>700</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G7" s="5">
         <v>1.99</v>
       </c>
-      <c r="H2" s="14">
-        <f t="shared" ref="H2:H30" si="1">G2*F2</f>
+      <c r="H7" s="14">
+        <f t="shared" ref="H7:H35" si="1">G7*F7</f>
         <v>1393</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6">
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
         <v>39434</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F8" s="9">
         <v>85</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G8" s="10">
         <v>19.989999999999998</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H8" s="15">
         <f t="shared" si="1"/>
         <v>1699.1499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>39437</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F9" s="4">
         <v>62</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G9" s="5">
         <v>4.99</v>
       </c>
-      <c r="H4" s="14">
-        <f>G4*F4</f>
+      <c r="H9" s="14">
+        <f>G9*F9</f>
         <v>309.38</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6">
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
         <v>39440</v>
       </c>
-      <c r="B5" s="6" t="str">
+      <c r="B10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F10" s="9">
         <v>58</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G10" s="10">
         <v>19.989999999999998</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H10" s="15">
         <f t="shared" si="1"/>
         <v>1159.4199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>39443</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F11" s="4">
         <v>10</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G11" s="5">
         <v>4.99</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H11" s="14">
         <f t="shared" si="1"/>
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6">
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
         <v>39446</v>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F12" s="9">
         <v>19</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G12" s="10">
         <v>2.99</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H12" s="15">
         <f t="shared" si="1"/>
         <v>56.81</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>39449</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F13" s="4">
         <v>6</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G13" s="5">
         <v>1.99</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H13" s="14">
         <f t="shared" si="1"/>
         <v>11.94</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6">
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
         <v>39452</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F14" s="9">
         <v>10</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G14" s="10">
         <v>4.99</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H14" s="15">
         <f t="shared" si="1"/>
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>39455</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F15" s="4">
         <v>39</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G15" s="5">
         <v>1.99</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H15" s="14">
         <f t="shared" si="1"/>
         <v>77.61</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6">
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
         <v>39458</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G16" s="10">
         <v>8.99</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H16" s="15">
         <f t="shared" si="1"/>
         <v>17.98</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>39461</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F17" s="4">
         <v>80</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G17" s="5">
         <v>4.99</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H17" s="14">
         <f t="shared" si="1"/>
         <v>399.20000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6">
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
         <v>39464</v>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F18" s="9">
         <v>51</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G18" s="10">
         <v>1.99</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H18" s="15">
         <f t="shared" si="1"/>
         <v>101.49</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
         <v>39467</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F19" s="4">
         <v>10</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G19" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H19" s="14">
         <f t="shared" si="1"/>
         <v>199.89999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6">
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
         <v>39470</v>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F20" s="9">
         <v>15</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G20" s="10">
         <v>4.99</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H20" s="15">
         <f t="shared" si="1"/>
         <v>74.850000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
         <v>39473</v>
       </c>
-      <c r="B16" s="1" t="str">
+      <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F21" s="4">
         <v>31</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G21" s="5">
         <v>125</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H21" s="14">
         <f t="shared" si="1"/>
         <v>3875</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="6">
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
         <v>39476</v>
       </c>
-      <c r="B17" s="6" t="str">
+      <c r="B22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F22" s="9">
         <v>46</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G22" s="10">
         <v>15.99</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H22" s="15">
         <f t="shared" si="1"/>
         <v>735.54</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
         <v>39479</v>
       </c>
-      <c r="B18" s="1" t="str">
+      <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F23" s="4">
         <v>61</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G23" s="5">
         <v>8.99</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H23" s="14">
         <f t="shared" si="1"/>
         <v>548.39</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6">
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
         <v>39482</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F24" s="9">
         <v>90</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G24" s="10">
         <v>8.99</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H24" s="15">
         <f t="shared" si="1"/>
         <v>809.1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
         <v>39485</v>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F25" s="4">
         <v>43</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G25" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H25" s="14">
         <f t="shared" si="1"/>
         <v>859.56999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6">
+    <row r="26" spans="1:8">
+      <c r="A26" s="6">
         <v>39488</v>
       </c>
-      <c r="B21" s="6" t="str">
+      <c r="B26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F26" s="9">
         <v>32</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G26" s="10">
         <v>4.99</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H26" s="15">
         <f t="shared" si="1"/>
         <v>159.68</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
         <v>39491</v>
       </c>
-      <c r="B22" s="1" t="str">
+      <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F27" s="4">
         <v>37</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G27" s="5">
         <v>1.29</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H27" s="14">
         <f t="shared" si="1"/>
         <v>47.730000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6">
+    <row r="28" spans="1:8">
+      <c r="A28" s="6">
         <v>39494</v>
       </c>
-      <c r="B23" s="6" t="str">
+      <c r="B28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F28" s="9">
         <v>26</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G28" s="10">
         <v>15.99</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H28" s="15">
         <f t="shared" si="1"/>
         <v>415.74</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1">
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
         <v>39497</v>
       </c>
-      <c r="B24" s="1" t="str">
+      <c r="B29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F29" s="4">
         <v>79</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G29" s="5">
         <v>8.99</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H29" s="14">
         <f t="shared" si="1"/>
         <v>710.21</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6">
+    <row r="30" spans="1:8">
+      <c r="A30" s="6">
         <v>39500</v>
       </c>
-      <c r="B25" s="6" t="str">
+      <c r="B30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F30" s="9">
         <v>72</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G30" s="10">
         <v>15</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H30" s="15">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1">
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
         <v>39503</v>
       </c>
-      <c r="B26" s="1" t="str">
+      <c r="B31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F31" s="4">
         <v>27</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G31" s="5">
         <v>4.99</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H31" s="14">
         <f t="shared" si="1"/>
         <v>134.73000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="6">
+    <row r="32" spans="1:8">
+      <c r="A32" s="6">
         <v>39506</v>
       </c>
-      <c r="B27" s="6" t="str">
+      <c r="B32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F32" s="9">
         <v>5</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G32" s="10">
         <v>19.989999999999998</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H32" s="15">
         <f t="shared" si="1"/>
         <v>99.949999999999989</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
         <v>39509</v>
       </c>
-      <c r="B28" s="1" t="str">
+      <c r="B33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F33" s="4">
         <v>59</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G33" s="5">
         <v>4.99</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H33" s="14">
         <f t="shared" si="1"/>
         <v>294.41000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="6">
+    <row r="34" spans="1:8">
+      <c r="A34" s="6">
         <v>39512</v>
       </c>
-      <c r="B29" s="6" t="str">
+      <c r="B34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F34" s="9">
         <v>41</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G34" s="10">
         <v>1.99</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H34" s="15">
         <f t="shared" si="1"/>
         <v>81.59</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
         <v>39515</v>
       </c>
-      <c r="B30" s="1" t="str">
+      <c r="B35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F35" s="4">
         <v>85</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G35" s="5">
         <v>4.99</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H35" s="14">
         <f t="shared" si="1"/>
         <v>424.15000000000003</v>
       </c>
@@ -4286,9 +4342,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" cellComments="atEnd" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4297,7 +4354,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1432034B-5363-4A53-869C-00E67BE23915}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4447,13 +4506,19 @@
       <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F12">
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41">
         <v>216</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="41">
         <v>868</v>
       </c>
-      <c r="L12">
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41">
         <v>1084</v>
       </c>
     </row>
@@ -4461,10 +4526,17 @@
       <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G13">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41">
         <v>5</v>
       </c>
-      <c r="L13">
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41">
         <v>5</v>
       </c>
     </row>
@@ -4472,13 +4544,19 @@
       <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F14">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41">
         <v>85</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="41">
         <v>90</v>
       </c>
-      <c r="L14">
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41">
         <v>175</v>
       </c>
     </row>
@@ -4486,10 +4564,17 @@
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F15">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41">
         <v>72</v>
       </c>
-      <c r="L15">
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41">
         <v>72</v>
       </c>
     </row>
@@ -4497,13 +4582,19 @@
       <c r="C16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F16">
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41">
         <v>59</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="41">
         <v>773</v>
       </c>
-      <c r="L16">
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41">
         <v>832</v>
       </c>
     </row>
@@ -4511,16 +4602,21 @@
       <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="41">
         <v>35</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="41">
         <v>178</v>
       </c>
-      <c r="I17">
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41">
         <v>69</v>
       </c>
-      <c r="L17">
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41">
         <v>282</v>
       </c>
     </row>
@@ -4528,13 +4624,19 @@
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="41">
         <v>10</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="41">
         <v>79</v>
       </c>
-      <c r="L18">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41">
         <v>89</v>
       </c>
     </row>
@@ -4542,13 +4644,19 @@
       <c r="C19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E19">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41">
         <v>58</v>
       </c>
-      <c r="I19">
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41">
         <v>43</v>
       </c>
-      <c r="L19">
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41">
         <v>101</v>
       </c>
     </row>
@@ -4556,16 +4664,21 @@
       <c r="C20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="41">
         <v>25</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="41">
         <v>41</v>
       </c>
-      <c r="I20">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41">
         <v>26</v>
       </c>
-      <c r="L20">
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41">
         <v>92</v>
       </c>
     </row>
@@ -4573,16 +4686,21 @@
       <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H21">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41">
         <v>178</v>
       </c>
-      <c r="J21">
+      <c r="I21" s="41"/>
+      <c r="J21" s="41">
         <v>109</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="41">
         <v>228</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="41">
         <v>515</v>
       </c>
     </row>
@@ -4590,13 +4708,19 @@
       <c r="C22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H22">
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41">
         <v>146</v>
       </c>
-      <c r="K22">
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41">
         <v>63</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="41">
         <v>209</v>
       </c>
     </row>
@@ -4604,10 +4728,17 @@
       <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K23">
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41">
         <v>31</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="41">
         <v>31</v>
       </c>
     </row>
@@ -4615,10 +4746,17 @@
       <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K24">
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41">
         <v>39</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="41">
         <v>39</v>
       </c>
     </row>
@@ -4626,10 +4764,17 @@
       <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K25">
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41">
         <v>80</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="41">
         <v>80</v>
       </c>
     </row>
@@ -4637,16 +4782,21 @@
       <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H26">
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41">
         <v>32</v>
       </c>
-      <c r="J26">
+      <c r="I26" s="41"/>
+      <c r="J26" s="41">
         <v>109</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="41">
         <v>15</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="41">
         <v>156</v>
       </c>
     </row>
@@ -4654,31 +4804,31 @@
       <c r="C27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="41">
         <v>35</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="41">
         <v>178</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="41">
         <v>216</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="41">
         <v>868</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="41">
         <v>178</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="41">
         <v>69</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="41">
         <v>109</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="41">
         <v>228</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="41">
         <v>1881</v>
       </c>
     </row>
@@ -4698,7 +4848,7 @@
   </sheetPr>
   <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>

--- a/Common/wwwroot/data/xlsio/excel-to-pdf.xlsx
+++ b/Common/wwwroot/data/xlsio/excel-to-pdf.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sample browser soruces for change\ej2-blazor-samples-dev\Common\wwwroot\data\xlsio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2151A32E-1CF9-4B3E-A931-A11C2A1D59AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81C94B7-4C64-4F07-B975-EBEED275A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
     <sheet name="PivotTable" sheetId="12" r:id="rId2"/>
     <sheet name="Chart" sheetId="15" r:id="rId3"/>
+    <sheet name="Bar Chart" sheetId="16" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
@@ -43,7 +44,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -255,13 +256,40 @@
   </si>
   <si>
     <t>February</t>
+  </si>
+  <si>
+    <t>Sales Report</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Amount(in $)</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>Condiments</t>
+  </si>
+  <si>
+    <t>Confections</t>
+  </si>
+  <si>
+    <t>Dairy Products</t>
+  </si>
+  <si>
+    <t>Grains/Cereals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -272,8 +300,9 @@
     <numFmt numFmtId="168" formatCode="0.00%_);[Red]\(0.00%\)"/>
     <numFmt numFmtId="169" formatCode="0%_);[Red]\(0%\)"/>
     <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="171" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -490,8 +519,25 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,8 +616,20 @@
         <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5786B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -769,6 +827,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -855,7 +928,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="170" fontId="4" fillId="13" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -952,10 +1025,25 @@
     <xf numFmtId="44" fontId="18" fillId="11" borderId="18" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="37" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="amount" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1950,6 +2038,578 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1"/>
+              <a:t>Bar Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78345157171275859"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="953735"/>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:srgbClr val="B0C6E1"/>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:srgbClr val="B0C6E1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="CAD9EB"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-lt"/>
+                    <a:cs typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="A6A6A6"/>
+                      </a:solidFill>
+                      <a:prstDash val="solid"/>
+                      <a:round/>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bar Chart'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Beverages</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Condiments</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Confections</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dairy Products</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Grains/Cereals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Chart'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86F7-4DAE-B43E-1C75FF86EBB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-892794848"/>
+        <c:axId val="-892794304"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+              <a:headEnd type="triangle" w="med" len="med"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-86F7-4DAE-B43E-1C75FF86EBB0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="plus"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="E56C0A"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+                <a:headEnd type="triangle" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-86F7-4DAE-B43E-1C75FF86EBB0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="22225">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+                <a:headEnd type="triangle" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-86F7-4DAE-B43E-1C75FF86EBB0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+                <a:headEnd type="triangle" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-86F7-4DAE-B43E-1C75FF86EBB0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-86F7-4DAE-B43E-1C75FF86EBB0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bar Chart'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Beverages</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Condiments</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Confections</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dairy Products</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Grains/Cereals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Chart'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-86F7-4DAE-B43E-1C75FF86EBB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-892794848"/>
+        <c:axId val="-892794304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-892794848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-lt"/>
+                <a:cs typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-892794304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-892794304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-lt"/>
+                <a:cs typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-892794848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="500"/>
+        <c:minorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2498,22 +3158,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>133360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2100512-E8DE-DA4E-A594-2AB948984F09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CAC7560-EDE5-F557-3401-B79C7CC1F908}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,8 +3195,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="0"/>
-          <a:ext cx="1962150" cy="771524"/>
+          <a:off x="38101" y="28575"/>
+          <a:ext cx="1895474" cy="752485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2591,8 +3251,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>579453</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF539FD-0C1C-4FCB-B2EF-DDD74911752D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yaavann Vignesh Sethuraman" refreshedDate="45266.52256759259" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="29" xr:uid="{08B72039-5352-49F3-8C28-BC72CFDD421B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yaavann Vignesh Sethuraman" refreshedDate="45266.642798032408" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="29" xr:uid="{08B72039-5352-49F3-8C28-BC72CFDD421B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:H35" sheet="Data"/>
   </cacheSource>
@@ -2947,7 +3650,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05F4A71A-7984-40A0-87A6-553C83BD34F1}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05F4A71A-7984-40A0-87A6-553C83BD34F1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C10:L27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="170" showAll="0"/>
@@ -3485,8 +4188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4355,7 +5058,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4373,91 +5076,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1">
       <c r="A2" s="20"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1">
       <c r="A3" s="20"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1">
       <c r="A4" s="20"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
     </row>
     <row r="5" spans="1:16" ht="12.75" customHeight="1">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
@@ -4506,19 +5209,19 @@
       <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41">
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40">
         <v>216</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="40">
         <v>868</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41">
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40">
         <v>1084</v>
       </c>
     </row>
@@ -4526,17 +5229,17 @@
       <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40">
         <v>5</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41">
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40">
         <v>5</v>
       </c>
     </row>
@@ -4544,19 +5247,19 @@
       <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40">
         <v>85</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="40">
         <v>90</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41">
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40">
         <v>175</v>
       </c>
     </row>
@@ -4564,17 +5267,17 @@
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40">
         <v>72</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40">
         <v>72</v>
       </c>
     </row>
@@ -4582,19 +5285,19 @@
       <c r="C16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41">
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40">
         <v>59</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="40">
         <v>773</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41">
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40">
         <v>832</v>
       </c>
     </row>
@@ -4602,21 +5305,21 @@
       <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="40">
         <v>35</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="40">
         <v>178</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41">
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40">
         <v>69</v>
       </c>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41">
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40">
         <v>282</v>
       </c>
     </row>
@@ -4624,19 +5327,19 @@
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="40">
         <v>10</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="40">
         <v>79</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41">
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40">
         <v>89</v>
       </c>
     </row>
@@ -4644,19 +5347,19 @@
       <c r="C19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41">
+      <c r="D19" s="40"/>
+      <c r="E19" s="40">
         <v>58</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41">
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40">
         <v>43</v>
       </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41">
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40">
         <v>101</v>
       </c>
     </row>
@@ -4664,21 +5367,21 @@
       <c r="C20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="40">
         <v>25</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="40">
         <v>41</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41">
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40">
         <v>26</v>
       </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41">
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40">
         <v>92</v>
       </c>
     </row>
@@ -4686,21 +5389,21 @@
       <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41">
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40">
         <v>178</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41">
+      <c r="I21" s="40"/>
+      <c r="J21" s="40">
         <v>109</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="40">
         <v>228</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="40">
         <v>515</v>
       </c>
     </row>
@@ -4708,19 +5411,19 @@
       <c r="C22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41">
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40">
         <v>146</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41">
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40">
         <v>63</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="40">
         <v>209</v>
       </c>
     </row>
@@ -4728,17 +5431,17 @@
       <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40">
         <v>31</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="40">
         <v>31</v>
       </c>
     </row>
@@ -4746,17 +5449,17 @@
       <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40">
         <v>39</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="40">
         <v>39</v>
       </c>
     </row>
@@ -4764,17 +5467,17 @@
       <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41">
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40">
         <v>80</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L25" s="40">
         <v>80</v>
       </c>
     </row>
@@ -4782,21 +5485,21 @@
       <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41">
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40">
         <v>32</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41">
+      <c r="I26" s="40"/>
+      <c r="J26" s="40">
         <v>109</v>
       </c>
-      <c r="K26" s="41">
+      <c r="K26" s="40">
         <v>15</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="40">
         <v>156</v>
       </c>
     </row>
@@ -4804,31 +5507,31 @@
       <c r="C27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="40">
         <v>35</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="40">
         <v>178</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="40">
         <v>216</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="40">
         <v>868</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="40">
         <v>178</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="40">
         <v>69</v>
       </c>
-      <c r="J27" s="41">
+      <c r="J27" s="40">
         <v>109</v>
       </c>
-      <c r="K27" s="41">
+      <c r="K27" s="40">
         <v>228</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="40">
         <v>1881</v>
       </c>
     </row>
@@ -5200,4 +5903,101 @@
   <pageSetup scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC56C2B-C1F7-4804-83BA-D741D852BAC9}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="43">
+        <v>2776</v>
+      </c>
+      <c r="C3" s="44">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="43">
+        <v>1077</v>
+      </c>
+      <c r="C4" s="44">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="43">
+        <v>2287</v>
+      </c>
+      <c r="C5" s="44">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1368</v>
+      </c>
+      <c r="C6" s="44">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="43">
+        <v>3325</v>
+      </c>
+      <c r="C7" s="44">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Common/wwwroot/data/xlsio/excel-to-pdf.xlsx
+++ b/Common/wwwroot/data/xlsio/excel-to-pdf.xlsx
@@ -1,29 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSampleBrowserBranch\ej2-blazor-samples\Common\wwwroot\data\xlsio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81C94B7-4C64-4F07-B975-EBEED275A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8629EFD0-6E0A-4252-A3E1-4D28CACD80AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
     <sheet name="PivotTable" sheetId="12" r:id="rId2"/>
     <sheet name="Chart" sheetId="15" r:id="rId3"/>
-    <sheet name="Bar Chart" sheetId="16" r:id="rId4"/>
+    <sheet name="Top-Bottom Rules" sheetId="18" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
+    <definedName name="_1FLOW" localSheetId="3">#REF!</definedName>
     <definedName name="_1FLOW">#REF!</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
+    <definedName name="Data.Dump" localSheetId="3" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+    <definedName name="ffds" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_CodePage" hidden="1">1252</definedName>
+    <definedName name="HTML_Control" localSheetId="3" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
     <definedName name="HTML_Email" hidden="1">""</definedName>
@@ -37,14 +44,17 @@
     <definedName name="HTML_OS" hidden="1">0</definedName>
     <definedName name="HTML_PathFile" hidden="1">"C:\my documents\lever.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
+    <definedName name="Macro1" localSheetId="3">'Top-Bottom Rules'!Macro1</definedName>
     <definedName name="Macro1">Macro1</definedName>
+    <definedName name="Macro2" localSheetId="3">'Top-Bottom Rules'!Macro2</definedName>
     <definedName name="Macro2">Macro2</definedName>
+    <definedName name="Ownership" localSheetId="3" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -97,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -258,38 +268,152 @@
     <t>February</t>
   </si>
   <si>
-    <t>Sales Report</t>
-  </si>
-  <si>
-    <t>Items</t>
-  </si>
-  <si>
-    <t>Amount(in $)</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Beverages</t>
-  </si>
-  <si>
-    <t>Condiments</t>
-  </si>
-  <si>
-    <t>Confections</t>
-  </si>
-  <si>
-    <t>Dairy Products</t>
-  </si>
-  <si>
-    <t>Grains/Cereals</t>
+    <t>Student 30</t>
+  </si>
+  <si>
+    <t>Student 29</t>
+  </si>
+  <si>
+    <t>Student 28</t>
+  </si>
+  <si>
+    <t>Student 27</t>
+  </si>
+  <si>
+    <t>Student 26</t>
+  </si>
+  <si>
+    <t>Student 25</t>
+  </si>
+  <si>
+    <t>Student 24</t>
+  </si>
+  <si>
+    <t>Student 23</t>
+  </si>
+  <si>
+    <t>Student 22</t>
+  </si>
+  <si>
+    <t>Student 21</t>
+  </si>
+  <si>
+    <t>Student 20</t>
+  </si>
+  <si>
+    <t>Student 19</t>
+  </si>
+  <si>
+    <t>Student 18</t>
+  </si>
+  <si>
+    <t>Student 17</t>
+  </si>
+  <si>
+    <t>Student 16</t>
+  </si>
+  <si>
+    <t>Student 15</t>
+  </si>
+  <si>
+    <t>Student 14</t>
+  </si>
+  <si>
+    <t>Student 13</t>
+  </si>
+  <si>
+    <t>Student 12</t>
+  </si>
+  <si>
+    <t>Student 11</t>
+  </si>
+  <si>
+    <t>Student 10</t>
+  </si>
+  <si>
+    <t>Student 9</t>
+  </si>
+  <si>
+    <t>Student 8</t>
+  </si>
+  <si>
+    <t>Student 7</t>
+  </si>
+  <si>
+    <t>Student 6</t>
+  </si>
+  <si>
+    <t>Student 5</t>
+  </si>
+  <si>
+    <t>Student 4</t>
+  </si>
+  <si>
+    <t>Student 3</t>
+  </si>
+  <si>
+    <t>Student 2</t>
+  </si>
+  <si>
+    <t>Student 1</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Subject 10</t>
+  </si>
+  <si>
+    <t>Subject 9</t>
+  </si>
+  <si>
+    <t>Subject 8</t>
+  </si>
+  <si>
+    <t>Subject 7</t>
+  </si>
+  <si>
+    <t>Subject 6</t>
+  </si>
+  <si>
+    <t>Subject 5</t>
+  </si>
+  <si>
+    <t>Subject 4</t>
+  </si>
+  <si>
+    <t>Subject 3</t>
+  </si>
+  <si>
+    <t>Subject 2</t>
+  </si>
+  <si>
+    <t>Subject 1</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Highlighted by Top 10 / Below Average</t>
+  </si>
+  <si>
+    <t>Top 10 Rank</t>
+  </si>
+  <si>
+    <t>Below Average</t>
+  </si>
+  <si>
+    <t>Students Marks Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -300,12 +424,18 @@
     <numFmt numFmtId="168" formatCode="0.00%_);[Red]\(0.00%\)"/>
     <numFmt numFmtId="169" formatCode="0%_);[Red]\(0%\)"/>
     <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="171" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="43">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -520,18 +650,53 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF339966"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA63B26"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -618,18 +783,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5786B9"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -827,137 +992,122 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="37" fontId="2" fillId="3" borderId="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="2">
+    <xf numFmtId="5" fontId="9" fillId="0" borderId="2">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3"/>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="3">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3"/>
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="3">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="3"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="4"/>
-    <xf numFmtId="37" fontId="5" fillId="7" borderId="2" applyBorder="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="9" fillId="6" borderId="3"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="4"/>
+    <xf numFmtId="37" fontId="6" fillId="7" borderId="2" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="2" borderId="5" applyFill="0">
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="5" applyFill="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="7"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="7"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="3" borderId="9" applyBorder="0">
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="9" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="13" fillId="9" borderId="10"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="10" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="14" fillId="9" borderId="10"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="4" fillId="13" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="13" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="39" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="39" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="13" borderId="11" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="13" borderId="11" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="12" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="12" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="39" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="39" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="12" borderId="11" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="12" borderId="11" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -967,83 +1117,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="13" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="13" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="12" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="12" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="11" borderId="13" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="19" fillId="11" borderId="13" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="11" borderId="13" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="11" borderId="13" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="13" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="11" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="11" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="44"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="44" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="45" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="45" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="44" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="46" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="16" xfId="47" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="46" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="16" xfId="47" applyFont="1" applyBorder="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="16" xfId="48" applyFont="1" applyBorder="1">
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="16" xfId="48" applyFont="1" applyBorder="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46" applyFont="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="47" applyFont="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46" applyFont="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="47" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="48" applyFont="1">
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="17" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="18" fillId="11" borderId="18" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="17" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="11" borderId="18" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="0" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="37" fillId="14" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="37" fillId="14" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="37" fontId="3" fillId="15" borderId="0" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="38" fillId="15" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="39" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="37" fontId="40" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="37" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="37" fontId="1" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="36" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="37" fontId="41" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="42" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="amount" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1096,7 +1253,26 @@
     <cellStyle name="Währung_Compiling Utility Macros" xfId="33" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Year" xfId="45" xr:uid="{B8BDDE90-1244-4305-874C-3B48B609D645}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFA63B26"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF00"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1514,6 +1690,7 @@
       <rgbColor rgb="00424242"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF0070C6"/>
       <color rgb="FF5786B9"/>
       <color rgb="FF538DC8"/>
     </mruColors>
@@ -1645,6 +1822,24 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="99000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Chart!$B$10:$B$12</c:f>
@@ -1721,6 +1916,22 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="0070C6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Chart!$B$10:$B$12</c:f>
@@ -2016,578 +2227,6 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="1"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1"/>
-              <a:t>Bar Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.78345157171275859"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="953735"/>
-                </a:gs>
-                <a:gs pos="74000">
-                  <a:srgbClr val="B0C6E1"/>
-                </a:gs>
-                <a:gs pos="83000">
-                  <a:srgbClr val="B0C6E1"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="CAD9EB"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="404040"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-lt"/>
-                    <a:cs typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:srgbClr val="A6A6A6"/>
-                      </a:solidFill>
-                      <a:prstDash val="solid"/>
-                      <a:round/>
-                    </a:ln>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Bar Chart'!$A$3:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Beverages</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Condiments</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Confections</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Dairy Products</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Grains/Cereals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Bar Chart'!$B$3:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2776</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1077</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2287</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1368</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3325</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-86F7-4DAE-B43E-1C75FF86EBB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-892794848"/>
-        <c:axId val="-892794304"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-              <a:headEnd type="triangle" w="med" len="med"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="triangle"/>
-              <c:size val="8"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-86F7-4DAE-B43E-1C75FF86EBB0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="plus"/>
-              <c:size val="7"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="E56C0A"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:prstDash val="dash"/>
-                <a:round/>
-                <a:headEnd type="triangle" w="med" len="med"/>
-                <a:tailEnd type="triangle" w="med" len="med"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-86F7-4DAE-B43E-1C75FF86EBB0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="7"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="22225">
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:prstDash val="dash"/>
-                <a:round/>
-                <a:headEnd type="triangle" w="med" len="med"/>
-                <a:tailEnd type="triangle" w="med" len="med"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-86F7-4DAE-B43E-1C75FF86EBB0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="15875">
-                  <a:solidFill>
-                    <a:srgbClr val="002060"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:prstDash val="dash"/>
-                <a:round/>
-                <a:headEnd type="triangle" w="med" len="med"/>
-                <a:tailEnd type="triangle" w="med" len="med"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-86F7-4DAE-B43E-1C75FF86EBB0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="7"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-86F7-4DAE-B43E-1C75FF86EBB0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Bar Chart'!$A$3:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Beverages</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Condiments</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Confections</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Dairy Products</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Grains/Cereals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Bar Chart'!$C$3:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>925</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>189</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-86F7-4DAE-B43E-1C75FF86EBB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-892794848"/>
-        <c:axId val="-892794304"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-892794848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-lt"/>
-                <a:cs typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-892794304"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-892794304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="4000"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-lt"/>
-                <a:cs typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-892794848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="500"/>
-        <c:minorUnit val="100"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:round/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9525">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3251,47 +2890,92 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>579453</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF539FD-0C1C-4FCB-B2EF-DDD74911752D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="TableStyle"/>
+      <sheetName val="Data"/>
+      <sheetName val="Autoshapes"/>
+      <sheetName val="GroupShapes"/>
+      <sheetName val="BarChart"/>
+      <sheetName val="Excel 2016 Chart"/>
+      <sheetName val="Picture Recolor"/>
+      <sheetName val="Bar Chart"/>
+      <sheetName val="Input"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Beverages</v>
+          </cell>
+          <cell r="B3">
+            <v>2776</v>
+          </cell>
+          <cell r="C3">
+            <v>925</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Condiments</v>
+          </cell>
+          <cell r="B4">
+            <v>1077</v>
+          </cell>
+          <cell r="C4">
+            <v>378</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Confections</v>
+          </cell>
+          <cell r="B5">
+            <v>2287</v>
+          </cell>
+          <cell r="C5">
+            <v>880</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Dairy Products</v>
+          </cell>
+          <cell r="B6">
+            <v>1368</v>
+          </cell>
+          <cell r="C6">
+            <v>581</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Grains/Cereals</v>
+          </cell>
+          <cell r="B7">
+            <v>3325</v>
+          </cell>
+          <cell r="C7">
+            <v>189</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3794,19 +3478,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83942FD3-A473-4D9F-A497-D7263F9D4E58}" name="Table1" displayName="Table1" ref="A6:H35" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Currency_TapePivot">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83942FD3-A473-4D9F-A497-D7263F9D4E58}" name="Table1" displayName="Table1" ref="A6:H35" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" headerRowCellStyle="Currency_TapePivot">
   <autoFilter ref="A6:H35" xr:uid="{A5BC75BE-14FE-45D2-B35A-EC20B546993F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4B666CE4-D4BF-47FE-A3DA-94DEFA2D661F}" name="Date" dataDxfId="7" dataCellStyle="Normal_PivotSizeTest"/>
-    <tableColumn id="2" xr3:uid="{65F08137-D4DE-408C-A045-1A94B02EC181}" name="Weekday" dataDxfId="6" dataCellStyle="Normal_PivotSizeTest">
+    <tableColumn id="1" xr3:uid="{4B666CE4-D4BF-47FE-A3DA-94DEFA2D661F}" name="Date" dataDxfId="9" dataCellStyle="Normal_PivotSizeTest"/>
+    <tableColumn id="2" xr3:uid="{65F08137-D4DE-408C-A045-1A94B02EC181}" name="Weekday" dataDxfId="8" dataCellStyle="Normal_PivotSizeTest">
       <calculatedColumnFormula>TEXT(A7,"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{23627D32-E1A8-4F2D-9BD5-B54B55B43FC5}" name="Region" dataDxfId="5" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="4" xr3:uid="{50A55DAE-0048-4A90-B657-6667BBF289F2}" name="Employee" dataDxfId="4" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="5" xr3:uid="{E6E219BE-0F13-4C0E-8AC2-2B2E9B7016F0}" name="Item" dataDxfId="3" dataCellStyle="Normal_TapePivot"/>
-    <tableColumn id="6" xr3:uid="{6377E0B3-21AD-4672-96D8-452BDD45470B}" name="Units" dataDxfId="2" dataCellStyle="Normal_PivotSizeTest"/>
-    <tableColumn id="7" xr3:uid="{ABC2151F-4EC5-495D-9078-F02A02997837}" name="Unit Cost" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{2C662E03-7C14-4AA2-BC91-9B6772686E41}" name="Total" dataDxfId="0" dataCellStyle="Normal_PivotSizeTest">
+    <tableColumn id="3" xr3:uid="{23627D32-E1A8-4F2D-9BD5-B54B55B43FC5}" name="Region" dataDxfId="7" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="4" xr3:uid="{50A55DAE-0048-4A90-B657-6667BBF289F2}" name="Employee" dataDxfId="6" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="5" xr3:uid="{E6E219BE-0F13-4C0E-8AC2-2B2E9B7016F0}" name="Item" dataDxfId="5" dataCellStyle="Normal_TapePivot"/>
+    <tableColumn id="6" xr3:uid="{6377E0B3-21AD-4672-96D8-452BDD45470B}" name="Units" dataDxfId="4" dataCellStyle="Normal_PivotSizeTest"/>
+    <tableColumn id="7" xr3:uid="{ABC2151F-4EC5-495D-9078-F02A02997837}" name="Unit Cost" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{2C662E03-7C14-4AA2-BC91-9B6772686E41}" name="Total" dataDxfId="2" dataCellStyle="Normal_PivotSizeTest">
       <calculatedColumnFormula>G7*F7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4192,16 +3876,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:8" ht="13.5" thickBot="1">
@@ -4230,7 +3914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.5" thickTop="1">
+    <row r="7" spans="1:8" ht="13" thickTop="1">
       <c r="A7" s="1">
         <v>39431</v>
       </c>
@@ -5061,106 +4745,106 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1">
       <c r="A2" s="20"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1">
       <c r="A3" s="20"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1">
       <c r="A4" s="20"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
     </row>
     <row r="5" spans="1:16" ht="12.75" customHeight="1">
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
@@ -5209,19 +4893,13 @@
       <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40">
+      <c r="F12">
         <v>216</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12">
         <v>868</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40">
+      <c r="L12">
         <v>1084</v>
       </c>
     </row>
@@ -5229,17 +4907,10 @@
       <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40">
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40">
+      <c r="L13">
         <v>5</v>
       </c>
     </row>
@@ -5247,19 +4918,13 @@
       <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40">
+      <c r="F14">
         <v>85</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14">
         <v>90</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40">
+      <c r="L14">
         <v>175</v>
       </c>
     </row>
@@ -5267,17 +4932,10 @@
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40">
+      <c r="F15">
         <v>72</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40">
+      <c r="L15">
         <v>72</v>
       </c>
     </row>
@@ -5285,19 +4943,13 @@
       <c r="C16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40">
+      <c r="F16">
         <v>59</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16">
         <v>773</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40">
+      <c r="L16">
         <v>832</v>
       </c>
     </row>
@@ -5305,21 +4957,16 @@
       <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17">
         <v>35</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17">
         <v>178</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40">
+      <c r="I17">
         <v>69</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40">
+      <c r="L17">
         <v>282</v>
       </c>
     </row>
@@ -5327,19 +4974,13 @@
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18">
         <v>10</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18">
         <v>79</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40">
+      <c r="L18">
         <v>89</v>
       </c>
     </row>
@@ -5347,19 +4988,13 @@
       <c r="C19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40">
+      <c r="E19">
         <v>58</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40">
+      <c r="I19">
         <v>43</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40">
+      <c r="L19">
         <v>101</v>
       </c>
     </row>
@@ -5367,21 +5002,16 @@
       <c r="C20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20">
         <v>25</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20">
         <v>41</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40">
+      <c r="I20">
         <v>26</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40">
+      <c r="L20">
         <v>92</v>
       </c>
     </row>
@@ -5389,21 +5019,16 @@
       <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40">
+      <c r="H21">
         <v>178</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40">
+      <c r="J21">
         <v>109</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21">
         <v>228</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21">
         <v>515</v>
       </c>
     </row>
@@ -5411,19 +5036,13 @@
       <c r="C22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40">
+      <c r="H22">
         <v>146</v>
       </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40">
+      <c r="K22">
         <v>63</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22">
         <v>209</v>
       </c>
     </row>
@@ -5431,17 +5050,10 @@
       <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40">
+      <c r="K23">
         <v>31</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23">
         <v>31</v>
       </c>
     </row>
@@ -5449,17 +5061,10 @@
       <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40">
+      <c r="K24">
         <v>39</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24">
         <v>39</v>
       </c>
     </row>
@@ -5467,17 +5072,10 @@
       <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40">
+      <c r="K25">
         <v>80</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25">
         <v>80</v>
       </c>
     </row>
@@ -5485,21 +5083,16 @@
       <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40">
+      <c r="H26">
         <v>32</v>
       </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40">
+      <c r="J26">
         <v>109</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26">
         <v>15</v>
       </c>
-      <c r="L26" s="40">
+      <c r="L26">
         <v>156</v>
       </c>
     </row>
@@ -5507,31 +5100,31 @@
       <c r="C27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27">
         <v>35</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27">
         <v>178</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27">
         <v>216</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27">
         <v>868</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27">
         <v>178</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27">
         <v>69</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27">
         <v>109</v>
       </c>
-      <c r="K27" s="40">
+      <c r="K27">
         <v>228</v>
       </c>
-      <c r="L27" s="40">
+      <c r="L27">
         <v>1881</v>
       </c>
     </row>
@@ -5552,22 +5145,22 @@
   <dimension ref="A2:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="21" customWidth="1"/>
-    <col min="4" max="5" width="21.42578125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="3.54296875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="21" customWidth="1"/>
+    <col min="4" max="5" width="21.453125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="30.75" customHeight="1"/>
-    <row r="3" spans="1:5" ht="26.25">
+    <row r="3" spans="1:5" ht="26">
       <c r="A3" s="22"/>
       <c r="B3" s="23" t="s">
         <v>50</v>
@@ -5592,7 +5185,7 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="27" thickBot="1">
+    <row r="6" spans="1:5" ht="26.5" thickBot="1">
       <c r="A6" s="22"/>
       <c r="B6" s="26" t="s">
         <v>52</v>
@@ -5601,7 +5194,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="26.25">
+    <row r="7" spans="1:5" ht="26">
       <c r="A7" s="22"/>
       <c r="B7" s="27">
         <v>2019</v>
@@ -5617,7 +5210,7 @@
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="33" thickBot="1">
+    <row r="9" spans="1:5" ht="32.5" thickBot="1">
       <c r="A9" s="22"/>
       <c r="B9" s="29" t="s">
         <v>30</v>
@@ -5906,98 +5499,1541 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC56C2B-C1F7-4804-83BA-D741D852BAC9}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35022D74-180A-487C-87AA-C4C28415EAE4}">
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" style="41" customWidth="1"/>
+    <col min="2" max="11" width="10.54296875" style="41" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" style="41" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" style="41" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:14" ht="23.5">
+      <c r="A1" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="47"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="47"/>
+    </row>
+    <row r="4" spans="1:14" ht="23.5">
+      <c r="A4" s="46"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="42">
+        <v>99</v>
+      </c>
+      <c r="C6" s="42">
+        <v>97</v>
+      </c>
+      <c r="D6" s="42">
+        <v>93</v>
+      </c>
+      <c r="E6" s="42">
+        <v>100</v>
+      </c>
+      <c r="F6" s="42">
+        <v>91</v>
+      </c>
+      <c r="G6" s="42">
+        <v>92</v>
+      </c>
+      <c r="H6" s="42">
+        <v>92</v>
+      </c>
+      <c r="I6" s="42">
+        <v>95</v>
+      </c>
+      <c r="J6" s="42">
+        <v>91</v>
+      </c>
+      <c r="K6" s="42">
+        <v>89</v>
+      </c>
+      <c r="L6" s="42">
+        <f>SUM(B6:K6)</f>
+        <v>939</v>
+      </c>
+      <c r="M6" s="42">
+        <f>AVERAGE(B6:K6)</f>
+        <v>93.9</v>
+      </c>
+      <c r="N6" s="41">
+        <f>RANK(L6,L6:L35)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A7" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="42">
+        <v>86</v>
+      </c>
+      <c r="C7" s="42">
+        <v>88</v>
+      </c>
+      <c r="D7" s="42">
+        <v>90</v>
+      </c>
+      <c r="E7" s="42">
+        <v>92</v>
+      </c>
+      <c r="F7" s="42">
+        <v>91</v>
+      </c>
+      <c r="G7" s="42">
+        <v>87</v>
+      </c>
+      <c r="H7" s="42">
+        <v>96</v>
+      </c>
+      <c r="I7" s="42">
+        <v>75</v>
+      </c>
+      <c r="J7" s="42">
+        <v>80</v>
+      </c>
+      <c r="K7" s="42">
+        <v>92</v>
+      </c>
+      <c r="L7" s="42">
+        <f>SUM(B7:K7)</f>
+        <v>877</v>
+      </c>
+      <c r="M7" s="42">
+        <f>AVERAGE(B7:K7)</f>
+        <v>87.7</v>
+      </c>
+      <c r="N7" s="41">
+        <f>RANK(L7,L6:L35)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A8" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="42">
+        <v>91</v>
+      </c>
+      <c r="C8" s="42">
+        <v>92</v>
+      </c>
+      <c r="D8" s="42">
+        <v>97</v>
+      </c>
+      <c r="E8" s="42">
+        <v>94</v>
+      </c>
+      <c r="F8" s="42">
+        <v>91</v>
+      </c>
+      <c r="G8" s="42">
+        <v>92</v>
+      </c>
+      <c r="H8" s="42">
+        <v>95</v>
+      </c>
+      <c r="I8" s="42">
+        <v>99</v>
+      </c>
+      <c r="J8" s="42">
+        <v>100</v>
+      </c>
+      <c r="K8" s="42">
+        <v>94</v>
+      </c>
+      <c r="L8" s="42">
+        <f>SUM(B8:K8)</f>
+        <v>945</v>
+      </c>
+      <c r="M8" s="42">
+        <f>AVERAGE(B8:K8)</f>
+        <v>94.5</v>
+      </c>
+      <c r="N8" s="41">
+        <f>RANK(L8,L6:L35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A9" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="42">
+        <v>64</v>
+      </c>
+      <c r="C9" s="42">
+        <v>71</v>
+      </c>
+      <c r="D9" s="42">
+        <v>82</v>
+      </c>
+      <c r="E9" s="42">
+        <v>80</v>
+      </c>
+      <c r="F9" s="42">
+        <v>63</v>
+      </c>
+      <c r="G9" s="42">
+        <v>71</v>
+      </c>
+      <c r="H9" s="42">
+        <v>88</v>
+      </c>
+      <c r="I9" s="42">
+        <v>78</v>
+      </c>
+      <c r="J9" s="42">
+        <v>76</v>
+      </c>
+      <c r="K9" s="42">
+        <v>83</v>
+      </c>
+      <c r="L9" s="42">
+        <f>SUM(B9:K9)</f>
+        <v>756</v>
+      </c>
+      <c r="M9" s="42">
+        <f>AVERAGE(B9:K9)</f>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="N9" s="41">
+        <f>RANK(L9,L6:L35)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A10" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="42">
+        <v>91</v>
+      </c>
+      <c r="C10" s="42">
+        <v>85</v>
+      </c>
+      <c r="D10" s="42">
+        <v>79</v>
+      </c>
+      <c r="E10" s="42">
+        <v>92</v>
+      </c>
+      <c r="F10" s="42">
+        <v>86</v>
+      </c>
+      <c r="G10" s="42">
+        <v>81</v>
+      </c>
+      <c r="H10" s="42">
+        <v>83</v>
+      </c>
+      <c r="I10" s="42">
+        <v>90</v>
+      </c>
+      <c r="J10" s="42">
+        <v>82</v>
+      </c>
+      <c r="K10" s="42">
+        <v>82</v>
+      </c>
+      <c r="L10" s="42">
+        <f>SUM(B10:K10)</f>
+        <v>851</v>
+      </c>
+      <c r="M10" s="42">
+        <f>AVERAGE(B10:K10)</f>
+        <v>85.1</v>
+      </c>
+      <c r="N10" s="41">
+        <f>RANK(L10,L6:L35)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A11" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="42">
+        <v>90</v>
+      </c>
+      <c r="C11" s="42">
+        <v>81</v>
+      </c>
+      <c r="D11" s="42">
+        <v>90</v>
+      </c>
+      <c r="E11" s="42">
+        <v>83</v>
+      </c>
+      <c r="F11" s="42">
+        <v>82</v>
+      </c>
+      <c r="G11" s="42">
+        <v>92</v>
+      </c>
+      <c r="H11" s="42">
+        <v>95</v>
+      </c>
+      <c r="I11" s="42">
+        <v>89</v>
+      </c>
+      <c r="J11" s="42">
+        <v>87</v>
+      </c>
+      <c r="K11" s="42">
+        <v>88</v>
+      </c>
+      <c r="L11" s="42">
+        <f>SUM(B11:K11)</f>
+        <v>877</v>
+      </c>
+      <c r="M11" s="42">
+        <f>AVERAGE(B11:K11)</f>
+        <v>87.7</v>
+      </c>
+      <c r="N11" s="41">
+        <f>RANK(L11,L6:L35)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A12" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="42">
+        <v>82</v>
+      </c>
+      <c r="C12" s="42">
+        <v>89</v>
+      </c>
+      <c r="D12" s="42">
+        <v>94</v>
+      </c>
+      <c r="E12" s="42">
+        <v>91</v>
+      </c>
+      <c r="F12" s="42">
+        <v>86</v>
+      </c>
+      <c r="G12" s="42">
+        <v>87</v>
+      </c>
+      <c r="H12" s="42">
+        <v>80</v>
+      </c>
+      <c r="I12" s="42">
+        <v>83</v>
+      </c>
+      <c r="J12" s="42">
+        <v>86</v>
+      </c>
+      <c r="K12" s="42">
+        <v>80</v>
+      </c>
+      <c r="L12" s="42">
+        <f>SUM(B12:K12)</f>
+        <v>858</v>
+      </c>
+      <c r="M12" s="42">
+        <f>AVERAGE(B12:K12)</f>
+        <v>85.8</v>
+      </c>
+      <c r="N12" s="41">
+        <f>RANK(L12,L6:L35)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A13" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="42">
+        <v>77</v>
+      </c>
+      <c r="C13" s="42">
+        <v>78</v>
+      </c>
+      <c r="D13" s="42">
+        <v>60</v>
+      </c>
+      <c r="E13" s="42">
+        <v>79</v>
+      </c>
+      <c r="F13" s="42">
+        <v>65</v>
+      </c>
+      <c r="G13" s="42">
+        <v>77</v>
+      </c>
+      <c r="H13" s="42">
+        <v>80</v>
+      </c>
+      <c r="I13" s="42">
+        <v>73</v>
+      </c>
+      <c r="J13" s="42">
+        <v>70</v>
+      </c>
+      <c r="K13" s="42">
+        <v>81</v>
+      </c>
+      <c r="L13" s="42">
+        <f>SUM(B13:K13)</f>
+        <v>740</v>
+      </c>
+      <c r="M13" s="42">
+        <f>AVERAGE(B13:K13)</f>
+        <v>74</v>
+      </c>
+      <c r="N13" s="41">
+        <f>RANK(L13,L6:L35)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A14" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="42">
+        <v>71</v>
+      </c>
+      <c r="C14" s="42">
+        <v>82</v>
+      </c>
+      <c r="D14" s="42">
+        <v>69</v>
+      </c>
+      <c r="E14" s="42">
+        <v>75</v>
+      </c>
+      <c r="F14" s="42">
+        <v>69</v>
+      </c>
+      <c r="G14" s="42">
+        <v>81</v>
+      </c>
+      <c r="H14" s="42">
+        <v>70</v>
+      </c>
+      <c r="I14" s="42">
+        <v>72</v>
+      </c>
+      <c r="J14" s="42">
+        <v>74</v>
+      </c>
+      <c r="K14" s="42">
+        <v>84</v>
+      </c>
+      <c r="L14" s="42">
+        <f>SUM(B14:K14)</f>
+        <v>747</v>
+      </c>
+      <c r="M14" s="42">
+        <f>AVERAGE(B14:K14)</f>
+        <v>74.7</v>
+      </c>
+      <c r="N14" s="41">
+        <f>RANK(L14,L6:L35)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A15" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="42">
+        <v>85</v>
+      </c>
+      <c r="C15" s="42">
+        <v>81</v>
+      </c>
+      <c r="D15" s="42">
+        <v>84</v>
+      </c>
+      <c r="E15" s="42">
+        <v>88</v>
+      </c>
+      <c r="F15" s="42">
+        <v>83</v>
+      </c>
+      <c r="G15" s="42">
+        <v>81</v>
+      </c>
+      <c r="H15" s="42">
+        <v>89</v>
+      </c>
+      <c r="I15" s="42">
+        <v>88</v>
+      </c>
+      <c r="J15" s="42">
+        <v>82</v>
+      </c>
+      <c r="K15" s="42">
+        <v>85</v>
+      </c>
+      <c r="L15" s="42">
+        <f>SUM(B15:K15)</f>
+        <v>846</v>
+      </c>
+      <c r="M15" s="42">
+        <f>AVERAGE(B15:K15)</f>
+        <v>84.6</v>
+      </c>
+      <c r="N15" s="41">
+        <f>RANK(L15,L6:L35)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A16" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="42">
+        <v>85</v>
+      </c>
+      <c r="C16" s="42">
+        <v>75</v>
+      </c>
+      <c r="D16" s="42">
+        <v>79</v>
+      </c>
+      <c r="E16" s="42">
+        <v>78</v>
+      </c>
+      <c r="F16" s="42">
+        <v>82</v>
+      </c>
+      <c r="G16" s="42">
+        <v>86</v>
+      </c>
+      <c r="H16" s="42">
+        <v>81</v>
+      </c>
+      <c r="I16" s="42">
+        <v>70</v>
+      </c>
+      <c r="J16" s="42">
+        <v>79</v>
+      </c>
+      <c r="K16" s="42">
+        <v>86</v>
+      </c>
+      <c r="L16" s="42">
+        <f>SUM(B16:K16)</f>
+        <v>801</v>
+      </c>
+      <c r="M16" s="42">
+        <f>AVERAGE(B16:K16)</f>
+        <v>80.099999999999994</v>
+      </c>
+      <c r="N16" s="41">
+        <f>RANK(L16,L6:L35)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A17" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="42">
+        <v>91</v>
+      </c>
+      <c r="C17" s="42">
+        <v>92</v>
+      </c>
+      <c r="D17" s="42">
+        <v>90</v>
+      </c>
+      <c r="E17" s="42">
+        <v>100</v>
+      </c>
+      <c r="F17" s="42">
+        <v>91</v>
+      </c>
+      <c r="G17" s="42">
+        <v>91</v>
+      </c>
+      <c r="H17" s="42">
+        <v>92</v>
+      </c>
+      <c r="I17" s="42">
+        <v>92</v>
+      </c>
+      <c r="J17" s="42">
+        <v>92</v>
+      </c>
+      <c r="K17" s="42">
+        <v>91</v>
+      </c>
+      <c r="L17" s="42">
+        <f>SUM(B17:K17)</f>
+        <v>922</v>
+      </c>
+      <c r="M17" s="42">
+        <f>AVERAGE(B17:K17)</f>
+        <v>92.2</v>
+      </c>
+      <c r="N17" s="41">
+        <f>RANK(L17,L6:L35)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A18" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="42">
+        <v>94</v>
+      </c>
+      <c r="C18" s="42">
+        <v>81</v>
+      </c>
+      <c r="D18" s="42">
+        <v>93</v>
+      </c>
+      <c r="E18" s="42">
+        <v>69</v>
+      </c>
+      <c r="F18" s="42">
+        <v>82</v>
+      </c>
+      <c r="G18" s="42">
+        <v>90</v>
+      </c>
+      <c r="H18" s="42">
+        <v>91</v>
+      </c>
+      <c r="I18" s="42">
+        <v>92</v>
+      </c>
+      <c r="J18" s="42">
+        <v>89</v>
+      </c>
+      <c r="K18" s="42">
+        <v>81</v>
+      </c>
+      <c r="L18" s="42">
+        <f>SUM(B18:K18)</f>
+        <v>862</v>
+      </c>
+      <c r="M18" s="42">
+        <f>AVERAGE(B18:K18)</f>
+        <v>86.2</v>
+      </c>
+      <c r="N18" s="41">
+        <f>RANK(L18,L6:L35)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="42">
+        <v>87</v>
+      </c>
+      <c r="C19" s="42">
+        <v>89</v>
+      </c>
+      <c r="D19" s="42">
+        <v>87</v>
+      </c>
+      <c r="E19" s="42">
+        <v>86</v>
+      </c>
+      <c r="F19" s="42">
+        <v>82</v>
+      </c>
+      <c r="G19" s="42">
+        <v>80</v>
+      </c>
+      <c r="H19" s="42">
+        <v>84</v>
+      </c>
+      <c r="I19" s="42">
+        <v>92</v>
+      </c>
+      <c r="J19" s="42">
+        <v>90</v>
+      </c>
+      <c r="K19" s="42">
+        <v>89</v>
+      </c>
+      <c r="L19" s="42">
+        <f>SUM(B19:K19)</f>
+        <v>866</v>
+      </c>
+      <c r="M19" s="42">
+        <f>AVERAGE(B19:K19)</f>
+        <v>86.6</v>
+      </c>
+      <c r="N19" s="41">
+        <f>RANK(L19,L6:L35)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A20" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="42">
+        <v>78</v>
+      </c>
+      <c r="C20" s="42">
+        <v>75</v>
+      </c>
+      <c r="D20" s="42">
+        <v>71</v>
+      </c>
+      <c r="E20" s="42">
+        <v>75</v>
+      </c>
+      <c r="F20" s="42">
+        <v>79</v>
+      </c>
+      <c r="G20" s="42">
+        <v>70</v>
+      </c>
+      <c r="H20" s="42">
+        <v>72</v>
+      </c>
+      <c r="I20" s="42">
+        <v>73</v>
+      </c>
+      <c r="J20" s="42">
+        <v>76</v>
+      </c>
+      <c r="K20" s="42">
+        <v>77</v>
+      </c>
+      <c r="L20" s="42">
+        <f>SUM(B20:K20)</f>
+        <v>746</v>
+      </c>
+      <c r="M20" s="42">
+        <f>AVERAGE(B20:K20)</f>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="N20" s="41">
+        <f>RANK(L20,L6:L35)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A21" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="42">
+        <v>93</v>
+      </c>
+      <c r="C21" s="42">
+        <v>91</v>
+      </c>
+      <c r="D21" s="42">
+        <v>90</v>
+      </c>
+      <c r="E21" s="42">
+        <v>89</v>
+      </c>
+      <c r="F21" s="42">
+        <v>82</v>
+      </c>
+      <c r="G21" s="42">
+        <v>85</v>
+      </c>
+      <c r="H21" s="42">
+        <v>87</v>
+      </c>
+      <c r="I21" s="42">
+        <v>88</v>
+      </c>
+      <c r="J21" s="42">
+        <v>87</v>
+      </c>
+      <c r="K21" s="42">
+        <v>84</v>
+      </c>
+      <c r="L21" s="42">
+        <f>SUM(B21:K21)</f>
+        <v>876</v>
+      </c>
+      <c r="M21" s="42">
+        <f>AVERAGE(B21:K21)</f>
+        <v>87.6</v>
+      </c>
+      <c r="N21" s="41">
+        <f>RANK(L21,L6:L35)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A22" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="42">
+        <v>88</v>
+      </c>
+      <c r="C22" s="42">
+        <v>82</v>
+      </c>
+      <c r="D22" s="42">
+        <v>80</v>
+      </c>
+      <c r="E22" s="42">
+        <v>81</v>
+      </c>
+      <c r="F22" s="42">
+        <v>84</v>
+      </c>
+      <c r="G22" s="42">
+        <v>81</v>
+      </c>
+      <c r="H22" s="42">
+        <v>80</v>
+      </c>
+      <c r="I22" s="42">
+        <v>82</v>
+      </c>
+      <c r="J22" s="42">
+        <v>91</v>
+      </c>
+      <c r="K22" s="42">
+        <v>87</v>
+      </c>
+      <c r="L22" s="42">
+        <f>SUM(B22:K22)</f>
+        <v>836</v>
+      </c>
+      <c r="M22" s="42">
+        <f>AVERAGE(B22:K22)</f>
+        <v>83.6</v>
+      </c>
+      <c r="N22" s="41">
+        <f>RANK(L22,L6:L35)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A23" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="42">
+        <v>93</v>
+      </c>
+      <c r="C23" s="42">
+        <v>94</v>
+      </c>
+      <c r="D23" s="42">
+        <v>95</v>
+      </c>
+      <c r="E23" s="42">
+        <v>92</v>
+      </c>
+      <c r="F23" s="42">
+        <v>90</v>
+      </c>
+      <c r="G23" s="42">
+        <v>90</v>
+      </c>
+      <c r="H23" s="42">
+        <v>98</v>
+      </c>
+      <c r="I23" s="42">
+        <v>100</v>
+      </c>
+      <c r="J23" s="42">
+        <v>99</v>
+      </c>
+      <c r="K23" s="42">
+        <v>94</v>
+      </c>
+      <c r="L23" s="42">
+        <f>SUM(B23:K23)</f>
+        <v>945</v>
+      </c>
+      <c r="M23" s="42">
+        <f>AVERAGE(B23:K23)</f>
+        <v>94.5</v>
+      </c>
+      <c r="N23" s="41">
+        <f>RANK(L23,L6:L35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A24" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="42">
+        <v>84</v>
+      </c>
+      <c r="C24" s="42">
+        <v>90</v>
+      </c>
+      <c r="D24" s="42">
+        <v>91</v>
+      </c>
+      <c r="E24" s="42">
+        <v>93</v>
+      </c>
+      <c r="F24" s="42">
+        <v>90</v>
+      </c>
+      <c r="G24" s="42">
+        <v>92</v>
+      </c>
+      <c r="H24" s="42">
+        <v>91</v>
+      </c>
+      <c r="I24" s="42">
+        <v>81</v>
+      </c>
+      <c r="J24" s="42">
+        <v>85</v>
+      </c>
+      <c r="K24" s="42">
+        <v>84</v>
+      </c>
+      <c r="L24" s="42">
+        <f>SUM(B24:K24)</f>
+        <v>881</v>
+      </c>
+      <c r="M24" s="42">
+        <f>AVERAGE(B24:K24)</f>
+        <v>88.1</v>
+      </c>
+      <c r="N24" s="41">
+        <f>RANK(L24,L6:L35)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A25" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="42">
+        <v>83</v>
+      </c>
+      <c r="C25" s="42">
+        <v>75</v>
+      </c>
+      <c r="D25" s="42">
+        <v>74</v>
+      </c>
+      <c r="E25" s="42">
+        <v>76</v>
+      </c>
+      <c r="F25" s="42">
+        <v>78</v>
+      </c>
+      <c r="G25" s="42">
+        <v>89</v>
+      </c>
+      <c r="H25" s="42">
+        <v>90</v>
+      </c>
+      <c r="I25" s="42">
+        <v>87</v>
+      </c>
+      <c r="J25" s="42">
+        <v>82</v>
+      </c>
+      <c r="K25" s="42">
+        <v>88</v>
+      </c>
+      <c r="L25" s="42">
+        <f>SUM(B25:K25)</f>
+        <v>822</v>
+      </c>
+      <c r="M25" s="42">
+        <f>AVERAGE(B25:K25)</f>
+        <v>82.2</v>
+      </c>
+      <c r="N25" s="41">
+        <f>RANK(L25,L6:L35)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A26" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="42">
+        <v>89</v>
+      </c>
+      <c r="C26" s="42">
+        <v>87</v>
+      </c>
+      <c r="D26" s="42">
+        <v>83</v>
+      </c>
+      <c r="E26" s="42">
+        <v>80</v>
+      </c>
+      <c r="F26" s="42">
+        <v>91</v>
+      </c>
+      <c r="G26" s="42">
+        <v>72</v>
+      </c>
+      <c r="H26" s="42">
+        <v>92</v>
+      </c>
+      <c r="I26" s="42">
+        <v>85</v>
+      </c>
+      <c r="J26" s="42">
+        <v>89</v>
+      </c>
+      <c r="K26" s="42">
+        <v>94</v>
+      </c>
+      <c r="L26" s="42">
+        <f>SUM(B26:K26)</f>
+        <v>862</v>
+      </c>
+      <c r="M26" s="42">
+        <f>AVERAGE(B26:K26)</f>
+        <v>86.2</v>
+      </c>
+      <c r="N26" s="41">
+        <f>RANK(L26,L6:L35)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A27" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="42">
+        <v>89</v>
+      </c>
+      <c r="C27" s="42">
+        <v>87</v>
+      </c>
+      <c r="D27" s="42">
+        <v>91</v>
+      </c>
+      <c r="E27" s="42">
+        <v>90</v>
+      </c>
+      <c r="F27" s="42">
+        <v>90</v>
+      </c>
+      <c r="G27" s="42">
+        <v>83</v>
+      </c>
+      <c r="H27" s="42">
+        <v>87</v>
+      </c>
+      <c r="I27" s="42">
+        <v>91</v>
+      </c>
+      <c r="J27" s="42">
+        <v>90</v>
+      </c>
+      <c r="K27" s="42">
+        <v>94</v>
+      </c>
+      <c r="L27" s="42">
+        <f>SUM(B27:K27)</f>
+        <v>892</v>
+      </c>
+      <c r="M27" s="42">
+        <f>AVERAGE(B27:K27)</f>
+        <v>89.2</v>
+      </c>
+      <c r="N27" s="41">
+        <f>RANK(L27,L6:L35)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A28" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="42">
+        <v>87</v>
+      </c>
+      <c r="C28" s="42">
+        <v>91</v>
+      </c>
+      <c r="D28" s="42">
+        <v>90</v>
+      </c>
+      <c r="E28" s="42">
+        <v>90</v>
+      </c>
+      <c r="F28" s="42">
+        <v>81</v>
+      </c>
+      <c r="G28" s="42">
+        <v>79</v>
+      </c>
+      <c r="H28" s="42">
+        <v>78</v>
+      </c>
+      <c r="I28" s="42">
+        <v>79</v>
+      </c>
+      <c r="J28" s="42">
+        <v>80</v>
+      </c>
+      <c r="K28" s="42">
+        <v>87</v>
+      </c>
+      <c r="L28" s="42">
+        <f>SUM(B28:K28)</f>
+        <v>842</v>
+      </c>
+      <c r="M28" s="42">
+        <f>AVERAGE(B28:K28)</f>
+        <v>84.2</v>
+      </c>
+      <c r="N28" s="41">
+        <f>RANK(L28,L6:L35)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A29" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="42">
+        <v>79</v>
+      </c>
+      <c r="C29" s="42">
+        <v>86</v>
+      </c>
+      <c r="D29" s="42">
+        <v>75</v>
+      </c>
+      <c r="E29" s="42">
+        <v>75</v>
+      </c>
+      <c r="F29" s="42">
+        <v>71</v>
+      </c>
+      <c r="G29" s="42">
+        <v>82</v>
+      </c>
+      <c r="H29" s="42">
+        <v>85</v>
+      </c>
+      <c r="I29" s="42">
+        <v>80</v>
+      </c>
+      <c r="J29" s="42">
+        <v>93</v>
+      </c>
+      <c r="K29" s="42">
+        <v>94</v>
+      </c>
+      <c r="L29" s="42">
+        <f>SUM(B29:K29)</f>
+        <v>820</v>
+      </c>
+      <c r="M29" s="42">
+        <f>AVERAGE(B29:K29)</f>
+        <v>82</v>
+      </c>
+      <c r="N29" s="41">
+        <f>RANK(L29,L6:L35)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A30" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="42">
+        <v>80</v>
+      </c>
+      <c r="C30" s="42">
+        <v>79</v>
+      </c>
+      <c r="D30" s="42">
+        <v>87</v>
+      </c>
+      <c r="E30" s="42">
+        <v>89</v>
+      </c>
+      <c r="F30" s="42">
+        <v>91</v>
+      </c>
+      <c r="G30" s="42">
+        <v>90</v>
+      </c>
+      <c r="H30" s="42">
+        <v>94</v>
+      </c>
+      <c r="I30" s="42">
+        <v>93</v>
+      </c>
+      <c r="J30" s="42">
+        <v>91</v>
+      </c>
+      <c r="K30" s="42">
+        <v>94</v>
+      </c>
+      <c r="L30" s="42">
+        <f>SUM(B30:K30)</f>
+        <v>888</v>
+      </c>
+      <c r="M30" s="42">
+        <f>AVERAGE(B30:K30)</f>
+        <v>88.8</v>
+      </c>
+      <c r="N30" s="41">
+        <f>RANK(L30,L6:L35)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A31" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="42">
+        <v>69</v>
+      </c>
+      <c r="C31" s="42">
+        <v>67</v>
+      </c>
+      <c r="D31" s="42">
+        <v>71</v>
+      </c>
+      <c r="E31" s="42">
+        <v>69</v>
+      </c>
+      <c r="F31" s="42">
+        <v>71</v>
+      </c>
+      <c r="G31" s="42">
+        <v>69</v>
+      </c>
+      <c r="H31" s="42">
+        <v>69</v>
+      </c>
+      <c r="I31" s="42">
+        <v>60</v>
+      </c>
+      <c r="J31" s="42">
+        <v>71</v>
+      </c>
+      <c r="K31" s="42">
+        <v>73</v>
+      </c>
+      <c r="L31" s="42">
+        <f>SUM(B31:K31)</f>
+        <v>689</v>
+      </c>
+      <c r="M31" s="42">
+        <f>AVERAGE(B31:K31)</f>
+        <v>68.900000000000006</v>
+      </c>
+      <c r="N31" s="41">
+        <f>RANK(L31,L6:L35)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A32" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="42">
+        <v>73</v>
+      </c>
+      <c r="C32" s="42">
+        <v>77</v>
+      </c>
+      <c r="D32" s="42">
+        <v>78</v>
+      </c>
+      <c r="E32" s="42">
+        <v>82</v>
+      </c>
+      <c r="F32" s="42">
+        <v>84</v>
+      </c>
+      <c r="G32" s="42">
+        <v>90</v>
+      </c>
+      <c r="H32" s="42">
+        <v>91</v>
+      </c>
+      <c r="I32" s="42">
+        <v>75</v>
+      </c>
+      <c r="J32" s="42">
+        <v>80</v>
+      </c>
+      <c r="K32" s="42">
+        <v>85</v>
+      </c>
+      <c r="L32" s="42">
+        <f>SUM(B32:K32)</f>
+        <v>815</v>
+      </c>
+      <c r="M32" s="42">
+        <f>AVERAGE(B32:K32)</f>
+        <v>81.5</v>
+      </c>
+      <c r="N32" s="41">
+        <f>RANK(L32,L6:L35)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A33" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="42">
+        <v>93</v>
+      </c>
+      <c r="C33" s="42">
+        <v>87</v>
+      </c>
+      <c r="D33" s="42">
+        <v>85</v>
+      </c>
+      <c r="E33" s="42">
+        <v>83</v>
+      </c>
+      <c r="F33" s="42">
+        <v>71</v>
+      </c>
+      <c r="G33" s="42">
+        <v>80</v>
+      </c>
+      <c r="H33" s="42">
+        <v>82</v>
+      </c>
+      <c r="I33" s="42">
+        <v>85</v>
+      </c>
+      <c r="J33" s="42">
+        <v>81</v>
+      </c>
+      <c r="K33" s="42">
+        <v>84</v>
+      </c>
+      <c r="L33" s="42">
+        <f>SUM(B33:K33)</f>
+        <v>831</v>
+      </c>
+      <c r="M33" s="42">
+        <f>AVERAGE(B33:K33)</f>
+        <v>83.1</v>
+      </c>
+      <c r="N33" s="41">
+        <f>RANK(L33,L6:L35)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A34" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="42">
+        <v>85</v>
+      </c>
+      <c r="C34" s="42">
+        <v>90</v>
+      </c>
+      <c r="D34" s="42">
+        <v>93</v>
+      </c>
+      <c r="E34" s="42">
+        <v>91</v>
+      </c>
+      <c r="F34" s="42">
+        <v>91</v>
+      </c>
+      <c r="G34" s="42">
+        <v>92</v>
+      </c>
+      <c r="H34" s="42">
+        <v>87</v>
+      </c>
+      <c r="I34" s="42">
+        <v>85</v>
+      </c>
+      <c r="J34" s="42">
+        <v>85</v>
+      </c>
+      <c r="K34" s="42">
+        <v>80</v>
+      </c>
+      <c r="L34" s="42">
+        <f>SUM(B34:K34)</f>
+        <v>879</v>
+      </c>
+      <c r="M34" s="42">
+        <f>AVERAGE(B34:K34)</f>
+        <v>87.9</v>
+      </c>
+      <c r="N34" s="41">
+        <f>RANK(L34,L6:L35)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A35" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="43">
-        <v>2776</v>
-      </c>
-      <c r="C3" s="44">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75">
-      <c r="A4" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="43">
-        <v>1077</v>
-      </c>
-      <c r="C4" s="44">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="43">
-        <v>2287</v>
-      </c>
-      <c r="C5" s="44">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
-      <c r="A6" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="43">
-        <v>1368</v>
-      </c>
-      <c r="C6" s="44">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
-      <c r="A7" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="43">
-        <v>3325</v>
-      </c>
-      <c r="C7" s="44">
-        <v>189</v>
+      <c r="B35" s="42">
+        <v>89</v>
+      </c>
+      <c r="C35" s="42">
+        <v>87</v>
+      </c>
+      <c r="D35" s="42">
+        <v>83</v>
+      </c>
+      <c r="E35" s="42">
+        <v>86</v>
+      </c>
+      <c r="F35" s="42">
+        <v>81</v>
+      </c>
+      <c r="G35" s="42">
+        <v>80</v>
+      </c>
+      <c r="H35" s="42">
+        <v>92</v>
+      </c>
+      <c r="I35" s="42">
+        <v>80</v>
+      </c>
+      <c r="J35" s="42">
+        <v>94</v>
+      </c>
+      <c r="K35" s="42">
+        <v>92</v>
+      </c>
+      <c r="L35" s="42">
+        <f>SUM(B35:K35)</f>
+        <v>864</v>
+      </c>
+      <c r="M35" s="42">
+        <f>AVERAGE(B35:K35)</f>
+        <v>86.4</v>
+      </c>
+      <c r="N35" s="41">
+        <f>RANK(L35,L6:L35)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="3">
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
+  <conditionalFormatting sqref="M6:M35">
+    <cfRule type="aboveAverage" dxfId="1" priority="1" aboveAverage="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N35">
+    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Common/wwwroot/data/xlsio/excel-to-pdf.xlsx
+++ b/Common/wwwroot/data/xlsio/excel-to-pdf.xlsx
@@ -1,35 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSampleBrowserBranch\ej2-blazor-samples\Common\wwwroot\data\xlsio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SB\ej2-blazor-samples-945859-XlsIO-Template\Blazor-MAUI-Demos\wwwroot\data\xlsio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8629EFD0-6E0A-4252-A3E1-4D28CACD80AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A8BA48-F2E5-40D2-A870-FC7A93BC4F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
     <sheet name="PivotTable" sheetId="12" r:id="rId2"/>
     <sheet name="Chart" sheetId="15" r:id="rId3"/>
     <sheet name="Top-Bottom Rules" sheetId="18" r:id="rId4"/>
+    <sheet name="EMF image" sheetId="20" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
+    <definedName name="_1FLOW" localSheetId="4">#REF!</definedName>
     <definedName name="_1FLOW" localSheetId="3">#REF!</definedName>
     <definedName name="_1FLOW">#REF!</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
+    <definedName name="Data.Dump" localSheetId="4" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" localSheetId="3" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="ffds" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_CodePage" hidden="1">1252</definedName>
+    <definedName name="HTML_Control" localSheetId="4" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Control" localSheetId="3" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
@@ -44,17 +48,20 @@
     <definedName name="HTML_OS" hidden="1">0</definedName>
     <definedName name="HTML_PathFile" hidden="1">"C:\my documents\lever.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
+    <definedName name="Macro1" localSheetId="4">'EMF image'!Macro1</definedName>
     <definedName name="Macro1" localSheetId="3">'Top-Bottom Rules'!Macro1</definedName>
     <definedName name="Macro1">Macro1</definedName>
+    <definedName name="Macro2" localSheetId="4">'EMF image'!Macro2</definedName>
     <definedName name="Macro2" localSheetId="3">'Top-Bottom Rules'!Macro2</definedName>
     <definedName name="Macro2">Macro2</definedName>
+    <definedName name="Ownership" localSheetId="4" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" localSheetId="3" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -425,7 +432,7 @@
     <numFmt numFmtId="169" formatCode="0%_);[Red]\(0%\)"/>
     <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -993,7 +1000,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1077,8 +1084,9 @@
     <xf numFmtId="3" fontId="32" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="170" fontId="5" fillId="13" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1175,9 +1183,6 @@
     <xf numFmtId="44" fontId="19" fillId="11" borderId="18" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="3" fillId="3" borderId="0" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="37" fillId="14" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1188,21 +1193,25 @@
     </xf>
     <xf numFmtId="37" fontId="3" fillId="15" borderId="0" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="38" fillId="15" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="39" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="37" fontId="1" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="36" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="41" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="42" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="40" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="1" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="36" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="39" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="37" fontId="3" fillId="3" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="41" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="42" fillId="3" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="amount" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Amounts" xfId="47" xr:uid="{36BC3C7C-A55F-4409-A9CC-BFB57F8D240A}"/>
     <cellStyle name="Blank" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1234,6 +1243,7 @@
     <cellStyle name="Normal 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Normal 4" xfId="40" xr:uid="{F6E41AC8-ED7C-4F42-A334-373180B7070F}"/>
     <cellStyle name="Normal 5" xfId="44" xr:uid="{B2FE65D7-95B1-47B5-A379-A4D26EE336A0}"/>
+    <cellStyle name="Normal 6" xfId="49" xr:uid="{818C9182-DEFD-4AC0-929A-A3485BE4BAC8}"/>
     <cellStyle name="Normal_PivotSizeTest" xfId="36" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Normal_Sheet1" xfId="39" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Normal_TapePivot" xfId="37" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
@@ -2890,6 +2900,50 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5486400" cy="2144619"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A843CE-4FE8-42ED-AF48-3082F103C99D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="158750"/>
+          <a:ext cx="5486400" cy="2144619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2897,15 +2951,15 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="TableStyle"/>
       <sheetName val="Data"/>
+      <sheetName val="PivotTable"/>
       <sheetName val="Autoshapes"/>
-      <sheetName val="GroupShapes"/>
-      <sheetName val="BarChart"/>
-      <sheetName val="Excel 2016 Chart"/>
-      <sheetName val="Picture Recolor"/>
-      <sheetName val="Bar Chart"/>
-      <sheetName val="Input"/>
+      <sheetName val="Chart"/>
+      <sheetName val="Chart with shape"/>
+      <sheetName val="AdvancedCF"/>
+      <sheetName val="Top-Bottom Rules"/>
+      <sheetName val="Form Control"/>
+      <sheetName val="EMF image"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2915,63 +2969,7 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Beverages</v>
-          </cell>
-          <cell r="B3">
-            <v>2776</v>
-          </cell>
-          <cell r="C3">
-            <v>925</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Condiments</v>
-          </cell>
-          <cell r="B4">
-            <v>1077</v>
-          </cell>
-          <cell r="C4">
-            <v>378</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Confections</v>
-          </cell>
-          <cell r="B5">
-            <v>2287</v>
-          </cell>
-          <cell r="C5">
-            <v>880</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Dairy Products</v>
-          </cell>
-          <cell r="B6">
-            <v>1368</v>
-          </cell>
-          <cell r="C6">
-            <v>581</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Grains/Cereals</v>
-          </cell>
-          <cell r="B7">
-            <v>3325</v>
-          </cell>
-          <cell r="C7">
-            <v>189</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
@@ -3876,19 +3874,19 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8" ht="13.5" thickBot="1">
+    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
@@ -3914,7 +3912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13" thickTop="1">
+    <row r="7" spans="1:8" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>39431</v>
       </c>
@@ -3942,7 +3940,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>39434</v>
       </c>
@@ -3970,7 +3968,7 @@
         <v>1699.1499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39437</v>
       </c>
@@ -3998,7 +3996,7 @@
         <v>309.38</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>39440</v>
       </c>
@@ -4026,7 +4024,7 @@
         <v>1159.4199999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39443</v>
       </c>
@@ -4054,7 +4052,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>39446</v>
       </c>
@@ -4082,7 +4080,7 @@
         <v>56.81</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39449</v>
       </c>
@@ -4110,7 +4108,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>39452</v>
       </c>
@@ -4138,7 +4136,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39455</v>
       </c>
@@ -4166,7 +4164,7 @@
         <v>77.61</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>39458</v>
       </c>
@@ -4194,7 +4192,7 @@
         <v>17.98</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>39461</v>
       </c>
@@ -4222,7 +4220,7 @@
         <v>399.20000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>39464</v>
       </c>
@@ -4250,7 +4248,7 @@
         <v>101.49</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39467</v>
       </c>
@@ -4278,7 +4276,7 @@
         <v>199.89999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>39470</v>
       </c>
@@ -4306,7 +4304,7 @@
         <v>74.850000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>39473</v>
       </c>
@@ -4334,7 +4332,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>39476</v>
       </c>
@@ -4362,7 +4360,7 @@
         <v>735.54</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>39479</v>
       </c>
@@ -4390,7 +4388,7 @@
         <v>548.39</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>39482</v>
       </c>
@@ -4418,7 +4416,7 @@
         <v>809.1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>39485</v>
       </c>
@@ -4446,7 +4444,7 @@
         <v>859.56999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>39488</v>
       </c>
@@ -4474,7 +4472,7 @@
         <v>159.68</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>39491</v>
       </c>
@@ -4502,7 +4500,7 @@
         <v>47.730000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>39494</v>
       </c>
@@ -4530,7 +4528,7 @@
         <v>415.74</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>39497</v>
       </c>
@@ -4558,7 +4556,7 @@
         <v>710.21</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>39500</v>
       </c>
@@ -4586,7 +4584,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>39503</v>
       </c>
@@ -4614,7 +4612,7 @@
         <v>134.73000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>39506</v>
       </c>
@@ -4642,7 +4640,7 @@
         <v>99.949999999999989</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>39509</v>
       </c>
@@ -4670,7 +4668,7 @@
         <v>294.41000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>39512</v>
       </c>
@@ -4698,7 +4696,7 @@
         <v>81.59</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>39515</v>
       </c>
@@ -4745,111 +4743,111 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75" customHeight="1">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
     </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16" ht="12.75" customHeight="1">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
@@ -4857,7 +4855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
@@ -4889,7 +4887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
@@ -4903,7 +4901,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
@@ -4914,7 +4912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
@@ -4928,7 +4926,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
@@ -4939,7 +4937,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
         <v>10</v>
       </c>
@@ -4953,7 +4951,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
@@ -4970,7 +4968,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -4984,7 +4982,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
         <v>18</v>
       </c>
@@ -4998,7 +4996,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
         <v>10</v>
       </c>
@@ -5015,7 +5013,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
@@ -5032,7 +5030,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="13" t="s">
         <v>13</v>
       </c>
@@ -5046,7 +5044,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
@@ -5057,7 +5055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
@@ -5068,7 +5066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
@@ -5079,7 +5077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
@@ -5096,7 +5094,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
         <v>26</v>
       </c>
@@ -5148,19 +5146,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.54296875" style="21" customWidth="1"/>
     <col min="2" max="2" width="37.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="21" customWidth="1"/>
     <col min="4" max="5" width="21.453125" style="21" customWidth="1"/>
     <col min="6" max="6" width="6.453125" style="21" customWidth="1"/>
     <col min="7" max="7" width="20.81640625" style="21" customWidth="1"/>
     <col min="8" max="16384" width="9.1796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1"/>
-    <row r="3" spans="1:5" ht="26">
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.4">
       <c r="A3" s="22"/>
       <c r="B3" s="23" t="s">
         <v>50</v>
@@ -5169,7 +5167,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="72" customHeight="1">
+    <row r="4" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="22"/>
       <c r="B4" s="25" t="s">
         <v>51</v>
@@ -5178,14 +5176,14 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1">
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="26.5" thickBot="1">
+    <row r="6" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="22"/>
       <c r="B6" s="26" t="s">
         <v>52</v>
@@ -5194,7 +5192,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="26">
+    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.4">
       <c r="A7" s="22"/>
       <c r="B7" s="27">
         <v>2019</v>
@@ -5203,14 +5201,14 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="32.25" customHeight="1">
+    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="22"/>
       <c r="B8" s="28"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="32.5" thickBot="1">
+    <row r="9" spans="1:5" ht="32.5" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="22"/>
       <c r="B9" s="29" t="s">
         <v>30</v>
@@ -5225,7 +5223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="22"/>
       <c r="B10" s="31" t="s">
         <v>34</v>
@@ -5240,7 +5238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="34" t="s">
         <v>35</v>
@@ -5255,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22"/>
       <c r="B12" s="34" t="s">
         <v>36</v>
@@ -5270,7 +5268,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22"/>
       <c r="B13" s="34" t="s">
         <v>37</v>
@@ -5285,7 +5283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22"/>
       <c r="B14" s="34" t="s">
         <v>38</v>
@@ -5300,7 +5298,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22"/>
       <c r="B15" s="34" t="s">
         <v>39</v>
@@ -5315,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="22"/>
       <c r="B16" s="34" t="s">
         <v>40</v>
@@ -5330,7 +5328,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="22"/>
       <c r="B17" s="34" t="s">
         <v>41</v>
@@ -5345,7 +5343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1">
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="22"/>
       <c r="B18" s="34" t="s">
         <v>42</v>
@@ -5360,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1">
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="22"/>
       <c r="B19" s="34" t="s">
         <v>43</v>
@@ -5375,7 +5373,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="22"/>
       <c r="B20" s="34" t="s">
         <v>44</v>
@@ -5390,7 +5388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1">
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="22"/>
       <c r="B21" s="34" t="s">
         <v>45</v>
@@ -5405,7 +5403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1">
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22"/>
       <c r="B22" s="34" t="s">
         <v>46</v>
@@ -5420,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1">
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="22"/>
       <c r="B23" s="34" t="s">
         <v>47</v>
@@ -5435,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1">
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="22"/>
       <c r="B24" s="34" t="s">
         <v>48</v>
@@ -5450,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1">
+    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="22"/>
       <c r="B25" s="34" t="s">
         <v>49</v>
@@ -5465,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1">
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="22"/>
       <c r="B26" s="37" t="s">
         <v>7</v>
@@ -5502,1521 +5500,1521 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35022D74-180A-487C-87AA-C4C28415EAE4}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+    <sheetView topLeftCell="C3" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="41" customWidth="1"/>
-    <col min="2" max="11" width="10.54296875" style="41" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" style="41" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" style="41" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="41"/>
+    <col min="1" max="1" width="17.81640625" style="40" customWidth="1"/>
+    <col min="2" max="11" width="10.54296875" style="40" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" style="40" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" style="40" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.5">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="48" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="53" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="47"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="47"/>
-    </row>
-    <row r="4" spans="1:14" ht="23.5">
-      <c r="A4" s="46"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="44" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+    </row>
+    <row r="4" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="45"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="41">
         <v>99</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>97</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>93</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <v>100</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="41">
         <v>91</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <v>92</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="41">
         <v>92</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="41">
         <v>95</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="41">
         <v>91</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="41">
         <v>89</v>
       </c>
-      <c r="L6" s="42">
-        <f>SUM(B6:K6)</f>
+      <c r="L6" s="41">
+        <f t="shared" ref="L6:L35" si="0">SUM(B6:K6)</f>
         <v>939</v>
       </c>
-      <c r="M6" s="42">
-        <f>AVERAGE(B6:K6)</f>
+      <c r="M6" s="41">
+        <f t="shared" ref="M6:M35" si="1">AVERAGE(B6:K6)</f>
         <v>93.9</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="40">
         <f>RANK(L6,L6:L35)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="41">
         <v>86</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>88</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="41">
         <v>90</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <v>92</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <v>91</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="41">
         <v>87</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="41">
         <v>96</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="41">
         <v>75</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="41">
         <v>80</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="41">
         <v>92</v>
       </c>
-      <c r="L7" s="42">
-        <f>SUM(B7:K7)</f>
+      <c r="L7" s="41">
+        <f t="shared" si="0"/>
         <v>877</v>
       </c>
-      <c r="M7" s="42">
-        <f>AVERAGE(B7:K7)</f>
+      <c r="M7" s="41">
+        <f t="shared" si="1"/>
         <v>87.7</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="40">
         <f>RANK(L7,L6:L35)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="41">
         <v>91</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>92</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>97</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>94</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>91</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="41">
         <v>92</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="41">
         <v>95</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="41">
         <v>99</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="41">
         <v>100</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="41">
         <v>94</v>
       </c>
-      <c r="L8" s="42">
-        <f>SUM(B8:K8)</f>
+      <c r="L8" s="41">
+        <f t="shared" si="0"/>
         <v>945</v>
       </c>
-      <c r="M8" s="42">
-        <f>AVERAGE(B8:K8)</f>
+      <c r="M8" s="41">
+        <f t="shared" si="1"/>
         <v>94.5</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="40">
         <f>RANK(L8,L6:L35)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="41">
         <v>64</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="41">
         <v>71</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="41">
         <v>82</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <v>80</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="41">
         <v>63</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <v>71</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="41">
         <v>88</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="41">
         <v>78</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="41">
         <v>76</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="41">
         <v>83</v>
       </c>
-      <c r="L9" s="42">
-        <f>SUM(B9:K9)</f>
+      <c r="L9" s="41">
+        <f t="shared" si="0"/>
         <v>756</v>
       </c>
-      <c r="M9" s="42">
-        <f>AVERAGE(B9:K9)</f>
+      <c r="M9" s="41">
+        <f t="shared" si="1"/>
         <v>75.599999999999994</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="40">
         <f>RANK(L9,L6:L35)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="41">
         <v>91</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>85</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>79</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <v>92</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="41">
         <v>86</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="41">
         <v>81</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="41">
         <v>83</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="41">
         <v>90</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="41">
         <v>82</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="41">
         <v>82</v>
       </c>
-      <c r="L10" s="42">
-        <f>SUM(B10:K10)</f>
+      <c r="L10" s="41">
+        <f t="shared" si="0"/>
         <v>851</v>
       </c>
-      <c r="M10" s="42">
-        <f>AVERAGE(B10:K10)</f>
+      <c r="M10" s="41">
+        <f t="shared" si="1"/>
         <v>85.1</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="40">
         <f>RANK(L10,L6:L35)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="41">
         <v>90</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <v>81</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <v>90</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="41">
         <v>83</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="41">
         <v>82</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="41">
         <v>92</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="41">
         <v>95</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="41">
         <v>89</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="41">
         <v>87</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="41">
         <v>88</v>
       </c>
-      <c r="L11" s="42">
-        <f>SUM(B11:K11)</f>
+      <c r="L11" s="41">
+        <f t="shared" si="0"/>
         <v>877</v>
       </c>
-      <c r="M11" s="42">
-        <f>AVERAGE(B11:K11)</f>
+      <c r="M11" s="41">
+        <f t="shared" si="1"/>
         <v>87.7</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="40">
         <f>RANK(L11,L6:L35)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="41">
         <v>82</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <v>89</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>94</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <v>91</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="41">
         <v>86</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="41">
         <v>87</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="41">
         <v>80</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="41">
         <v>83</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="41">
         <v>86</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="41">
         <v>80</v>
       </c>
-      <c r="L12" s="42">
-        <f>SUM(B12:K12)</f>
+      <c r="L12" s="41">
+        <f t="shared" si="0"/>
         <v>858</v>
       </c>
-      <c r="M12" s="42">
-        <f>AVERAGE(B12:K12)</f>
+      <c r="M12" s="41">
+        <f t="shared" si="1"/>
         <v>85.8</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="40">
         <f>RANK(L12,L6:L35)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="41">
         <v>77</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="41">
         <v>78</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="41">
         <v>60</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <v>79</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="41">
         <v>65</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="41">
         <v>77</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="41">
         <v>80</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="41">
         <v>73</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="41">
         <v>70</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="41">
         <v>81</v>
       </c>
-      <c r="L13" s="42">
-        <f>SUM(B13:K13)</f>
+      <c r="L13" s="41">
+        <f t="shared" si="0"/>
         <v>740</v>
       </c>
-      <c r="M13" s="42">
-        <f>AVERAGE(B13:K13)</f>
+      <c r="M13" s="41">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="40">
         <f>RANK(L13,L6:L35)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="41">
         <v>71</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <v>82</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <v>69</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <v>75</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="41">
         <v>69</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="41">
         <v>81</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="41">
         <v>70</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="41">
         <v>72</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="41">
         <v>74</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="41">
         <v>84</v>
       </c>
-      <c r="L14" s="42">
-        <f>SUM(B14:K14)</f>
+      <c r="L14" s="41">
+        <f t="shared" si="0"/>
         <v>747</v>
       </c>
-      <c r="M14" s="42">
-        <f>AVERAGE(B14:K14)</f>
+      <c r="M14" s="41">
+        <f t="shared" si="1"/>
         <v>74.7</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="40">
         <f>RANK(L14,L6:L35)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="41">
         <v>85</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <v>81</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="41">
         <v>84</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <v>88</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="41">
         <v>83</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="41">
         <v>81</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="41">
         <v>89</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="41">
         <v>88</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="41">
         <v>82</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="41">
         <v>85</v>
       </c>
-      <c r="L15" s="42">
-        <f>SUM(B15:K15)</f>
+      <c r="L15" s="41">
+        <f t="shared" si="0"/>
         <v>846</v>
       </c>
-      <c r="M15" s="42">
-        <f>AVERAGE(B15:K15)</f>
+      <c r="M15" s="41">
+        <f t="shared" si="1"/>
         <v>84.6</v>
       </c>
-      <c r="N15" s="41">
+      <c r="N15" s="40">
         <f>RANK(L15,L6:L35)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="41">
         <v>85</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="41">
         <v>75</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>79</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>78</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="41">
         <v>82</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="41">
         <v>86</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="41">
         <v>81</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="41">
         <v>70</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="41">
         <v>79</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="41">
         <v>86</v>
       </c>
-      <c r="L16" s="42">
-        <f>SUM(B16:K16)</f>
+      <c r="L16" s="41">
+        <f t="shared" si="0"/>
         <v>801</v>
       </c>
-      <c r="M16" s="42">
-        <f>AVERAGE(B16:K16)</f>
+      <c r="M16" s="41">
+        <f t="shared" si="1"/>
         <v>80.099999999999994</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="40">
         <f>RANK(L16,L6:L35)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="41">
         <v>91</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="41">
         <v>92</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="41">
         <v>90</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="41">
         <v>100</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="41">
         <v>91</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="41">
         <v>91</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="41">
         <v>92</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="41">
         <v>92</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="41">
         <v>92</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="41">
         <v>91</v>
       </c>
-      <c r="L17" s="42">
-        <f>SUM(B17:K17)</f>
+      <c r="L17" s="41">
+        <f t="shared" si="0"/>
         <v>922</v>
       </c>
-      <c r="M17" s="42">
-        <f>AVERAGE(B17:K17)</f>
+      <c r="M17" s="41">
+        <f t="shared" si="1"/>
         <v>92.2</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="40">
         <f>RANK(L17,L6:L35)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="41">
         <v>94</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <v>81</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>93</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="41">
         <v>69</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="41">
         <v>82</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="41">
         <v>90</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="41">
         <v>91</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="41">
         <v>92</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="41">
         <v>89</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="41">
         <v>81</v>
       </c>
-      <c r="L18" s="42">
-        <f>SUM(B18:K18)</f>
+      <c r="L18" s="41">
+        <f t="shared" si="0"/>
         <v>862</v>
       </c>
-      <c r="M18" s="42">
-        <f>AVERAGE(B18:K18)</f>
+      <c r="M18" s="41">
+        <f t="shared" si="1"/>
         <v>86.2</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="40">
         <f>RANK(L18,L6:L35)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="41">
         <v>87</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="41">
         <v>89</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="41">
         <v>87</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="41">
         <v>86</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="41">
         <v>82</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="41">
         <v>80</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="41">
         <v>84</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="41">
         <v>92</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="41">
         <v>90</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="41">
         <v>89</v>
       </c>
-      <c r="L19" s="42">
-        <f>SUM(B19:K19)</f>
+      <c r="L19" s="41">
+        <f t="shared" si="0"/>
         <v>866</v>
       </c>
-      <c r="M19" s="42">
-        <f>AVERAGE(B19:K19)</f>
+      <c r="M19" s="41">
+        <f t="shared" si="1"/>
         <v>86.6</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="40">
         <f>RANK(L19,L6:L35)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="41">
         <v>78</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <v>75</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="41">
         <v>71</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="41">
         <v>75</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="41">
         <v>79</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="41">
         <v>70</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="41">
         <v>72</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="41">
         <v>73</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="41">
         <v>76</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="41">
         <v>77</v>
       </c>
-      <c r="L20" s="42">
-        <f>SUM(B20:K20)</f>
+      <c r="L20" s="41">
+        <f t="shared" si="0"/>
         <v>746</v>
       </c>
-      <c r="M20" s="42">
-        <f>AVERAGE(B20:K20)</f>
+      <c r="M20" s="41">
+        <f t="shared" si="1"/>
         <v>74.599999999999994</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="40">
         <f>RANK(L20,L6:L35)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="41">
         <v>93</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="41">
         <v>91</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="41">
         <v>90</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="41">
         <v>89</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="41">
         <v>82</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="41">
         <v>85</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <v>87</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="41">
         <v>88</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="41">
         <v>87</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="41">
         <v>84</v>
       </c>
-      <c r="L21" s="42">
-        <f>SUM(B21:K21)</f>
+      <c r="L21" s="41">
+        <f t="shared" si="0"/>
         <v>876</v>
       </c>
-      <c r="M21" s="42">
-        <f>AVERAGE(B21:K21)</f>
+      <c r="M21" s="41">
+        <f t="shared" si="1"/>
         <v>87.6</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="40">
         <f>RANK(L21,L6:L35)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="41">
         <v>88</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="41">
         <v>82</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>80</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="41">
         <v>81</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="41">
         <v>84</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="41">
         <v>81</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="41">
         <v>80</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="41">
         <v>82</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="41">
         <v>91</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="41">
         <v>87</v>
       </c>
-      <c r="L22" s="42">
-        <f>SUM(B22:K22)</f>
+      <c r="L22" s="41">
+        <f t="shared" si="0"/>
         <v>836</v>
       </c>
-      <c r="M22" s="42">
-        <f>AVERAGE(B22:K22)</f>
+      <c r="M22" s="41">
+        <f t="shared" si="1"/>
         <v>83.6</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="40">
         <f>RANK(L22,L6:L35)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="41">
         <v>93</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="41">
         <v>94</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="41">
         <v>95</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="41">
         <v>92</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="41">
         <v>90</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="41">
         <v>90</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="41">
         <v>98</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="41">
         <v>100</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="41">
         <v>99</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="41">
         <v>94</v>
       </c>
-      <c r="L23" s="42">
-        <f>SUM(B23:K23)</f>
+      <c r="L23" s="41">
+        <f t="shared" si="0"/>
         <v>945</v>
       </c>
-      <c r="M23" s="42">
-        <f>AVERAGE(B23:K23)</f>
+      <c r="M23" s="41">
+        <f t="shared" si="1"/>
         <v>94.5</v>
       </c>
-      <c r="N23" s="41">
+      <c r="N23" s="40">
         <f>RANK(L23,L6:L35)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="41">
         <v>84</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="41">
         <v>90</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
         <v>91</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="41">
         <v>93</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="41">
         <v>90</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="41">
         <v>92</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="41">
         <v>91</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="41">
         <v>81</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="41">
         <v>85</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="41">
         <v>84</v>
       </c>
-      <c r="L24" s="42">
-        <f>SUM(B24:K24)</f>
+      <c r="L24" s="41">
+        <f t="shared" si="0"/>
         <v>881</v>
       </c>
-      <c r="M24" s="42">
-        <f>AVERAGE(B24:K24)</f>
+      <c r="M24" s="41">
+        <f t="shared" si="1"/>
         <v>88.1</v>
       </c>
-      <c r="N24" s="41">
+      <c r="N24" s="40">
         <f>RANK(L24,L6:L35)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="41">
         <v>83</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="41">
         <v>75</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="41">
         <v>74</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="41">
         <v>76</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="41">
         <v>78</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="41">
         <v>89</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="41">
         <v>90</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="41">
         <v>87</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="41">
         <v>82</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="41">
         <v>88</v>
       </c>
-      <c r="L25" s="42">
-        <f>SUM(B25:K25)</f>
+      <c r="L25" s="41">
+        <f t="shared" si="0"/>
         <v>822</v>
       </c>
-      <c r="M25" s="42">
-        <f>AVERAGE(B25:K25)</f>
+      <c r="M25" s="41">
+        <f t="shared" si="1"/>
         <v>82.2</v>
       </c>
-      <c r="N25" s="41">
+      <c r="N25" s="40">
         <f>RANK(L25,L6:L35)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="41">
         <v>89</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="41">
         <v>87</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
         <v>83</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="41">
         <v>80</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="41">
         <v>91</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="41">
         <v>72</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="41">
         <v>92</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="41">
         <v>85</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="41">
         <v>89</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="41">
         <v>94</v>
       </c>
-      <c r="L26" s="42">
-        <f>SUM(B26:K26)</f>
+      <c r="L26" s="41">
+        <f t="shared" si="0"/>
         <v>862</v>
       </c>
-      <c r="M26" s="42">
-        <f>AVERAGE(B26:K26)</f>
+      <c r="M26" s="41">
+        <f t="shared" si="1"/>
         <v>86.2</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="40">
         <f>RANK(L26,L6:L35)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A27" s="41" t="s">
+    <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="41">
         <v>89</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="41">
         <v>87</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="41">
         <v>91</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="41">
         <v>90</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="41">
         <v>90</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="41">
         <v>83</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="41">
         <v>87</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="41">
         <v>91</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="41">
         <v>90</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="41">
         <v>94</v>
       </c>
-      <c r="L27" s="42">
-        <f>SUM(B27:K27)</f>
+      <c r="L27" s="41">
+        <f t="shared" si="0"/>
         <v>892</v>
       </c>
-      <c r="M27" s="42">
-        <f>AVERAGE(B27:K27)</f>
+      <c r="M27" s="41">
+        <f t="shared" si="1"/>
         <v>89.2</v>
       </c>
-      <c r="N27" s="41">
+      <c r="N27" s="40">
         <f>RANK(L27,L6:L35)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="41">
         <v>87</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="41">
         <v>91</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="41">
         <v>90</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="41">
         <v>90</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="41">
         <v>81</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="41">
         <v>79</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="41">
         <v>78</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="41">
         <v>79</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="41">
         <v>80</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="41">
         <v>87</v>
       </c>
-      <c r="L28" s="42">
-        <f>SUM(B28:K28)</f>
+      <c r="L28" s="41">
+        <f t="shared" si="0"/>
         <v>842</v>
       </c>
-      <c r="M28" s="42">
-        <f>AVERAGE(B28:K28)</f>
+      <c r="M28" s="41">
+        <f t="shared" si="1"/>
         <v>84.2</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N28" s="40">
         <f>RANK(L28,L6:L35)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="41">
         <v>79</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="41">
         <v>86</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="41">
         <v>75</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="41">
         <v>75</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="41">
         <v>71</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="41">
         <v>82</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="41">
         <v>85</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="41">
         <v>80</v>
       </c>
-      <c r="J29" s="42">
+      <c r="J29" s="41">
         <v>93</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="41">
         <v>94</v>
       </c>
-      <c r="L29" s="42">
-        <f>SUM(B29:K29)</f>
+      <c r="L29" s="41">
+        <f t="shared" si="0"/>
         <v>820</v>
       </c>
-      <c r="M29" s="42">
-        <f>AVERAGE(B29:K29)</f>
+      <c r="M29" s="41">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="40">
         <f>RANK(L29,L6:L35)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="41">
         <v>80</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <v>79</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <v>87</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <v>89</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="41">
         <v>91</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="41">
         <v>90</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <v>94</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="41">
         <v>93</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="41">
         <v>91</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="41">
         <v>94</v>
       </c>
-      <c r="L30" s="42">
-        <f>SUM(B30:K30)</f>
+      <c r="L30" s="41">
+        <f t="shared" si="0"/>
         <v>888</v>
       </c>
-      <c r="M30" s="42">
-        <f>AVERAGE(B30:K30)</f>
+      <c r="M30" s="41">
+        <f t="shared" si="1"/>
         <v>88.8</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="40">
         <f>RANK(L30,L6:L35)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A31" s="41" t="s">
+    <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="42">
+      <c r="B31" s="41">
         <v>69</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="41">
         <v>67</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="41">
         <v>71</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="41">
         <v>69</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="41">
         <v>71</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="41">
         <v>69</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="41">
         <v>69</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="41">
         <v>60</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="41">
         <v>71</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="41">
         <v>73</v>
       </c>
-      <c r="L31" s="42">
-        <f>SUM(B31:K31)</f>
+      <c r="L31" s="41">
+        <f t="shared" si="0"/>
         <v>689</v>
       </c>
-      <c r="M31" s="42">
-        <f>AVERAGE(B31:K31)</f>
+      <c r="M31" s="41">
+        <f t="shared" si="1"/>
         <v>68.900000000000006</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="40">
         <f>RANK(L31,L6:L35)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A32" s="41" t="s">
+    <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="42">
+      <c r="B32" s="41">
         <v>73</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="41">
         <v>77</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="41">
         <v>78</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="41">
         <v>82</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="41">
         <v>84</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="41">
         <v>90</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="41">
         <v>91</v>
       </c>
-      <c r="I32" s="42">
+      <c r="I32" s="41">
         <v>75</v>
       </c>
-      <c r="J32" s="42">
+      <c r="J32" s="41">
         <v>80</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="41">
         <v>85</v>
       </c>
-      <c r="L32" s="42">
-        <f>SUM(B32:K32)</f>
+      <c r="L32" s="41">
+        <f t="shared" si="0"/>
         <v>815</v>
       </c>
-      <c r="M32" s="42">
-        <f>AVERAGE(B32:K32)</f>
+      <c r="M32" s="41">
+        <f t="shared" si="1"/>
         <v>81.5</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="40">
         <f>RANK(L32,L6:L35)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A33" s="41" t="s">
+    <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="41">
         <v>93</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="41">
         <v>87</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="41">
         <v>85</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="41">
         <v>83</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="41">
         <v>71</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="41">
         <v>80</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="41">
         <v>82</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="41">
         <v>85</v>
       </c>
-      <c r="J33" s="42">
+      <c r="J33" s="41">
         <v>81</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="41">
         <v>84</v>
       </c>
-      <c r="L33" s="42">
-        <f>SUM(B33:K33)</f>
+      <c r="L33" s="41">
+        <f t="shared" si="0"/>
         <v>831</v>
       </c>
-      <c r="M33" s="42">
-        <f>AVERAGE(B33:K33)</f>
+      <c r="M33" s="41">
+        <f t="shared" si="1"/>
         <v>83.1</v>
       </c>
-      <c r="N33" s="41">
+      <c r="N33" s="40">
         <f>RANK(L33,L6:L35)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A34" s="41" t="s">
+    <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="41">
         <v>85</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="41">
         <v>90</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="41">
         <v>93</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="41">
         <v>91</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <v>91</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="41">
         <v>92</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="41">
         <v>87</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="41">
         <v>85</v>
       </c>
-      <c r="J34" s="42">
+      <c r="J34" s="41">
         <v>85</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="41">
         <v>80</v>
       </c>
-      <c r="L34" s="42">
-        <f>SUM(B34:K34)</f>
+      <c r="L34" s="41">
+        <f t="shared" si="0"/>
         <v>879</v>
       </c>
-      <c r="M34" s="42">
-        <f>AVERAGE(B34:K34)</f>
+      <c r="M34" s="41">
+        <f t="shared" si="1"/>
         <v>87.9</v>
       </c>
-      <c r="N34" s="41">
+      <c r="N34" s="40">
         <f>RANK(L34,L6:L35)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A35" s="41" t="s">
+    <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="42">
+      <c r="B35" s="41">
         <v>89</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="41">
         <v>87</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="41">
         <v>83</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="41">
         <v>86</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="41">
         <v>81</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="41">
         <v>80</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="41">
         <v>92</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="41">
         <v>80</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="41">
         <v>94</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="41">
         <v>92</v>
       </c>
-      <c r="L35" s="42">
-        <f>SUM(B35:K35)</f>
+      <c r="L35" s="41">
+        <f t="shared" si="0"/>
         <v>864</v>
       </c>
-      <c r="M35" s="42">
-        <f>AVERAGE(B35:K35)</f>
+      <c r="M35" s="41">
+        <f t="shared" si="1"/>
         <v>86.4</v>
       </c>
-      <c r="N35" s="41">
+      <c r="N35" s="40">
         <f>RANK(L35,L6:L35)</f>
         <v>13</v>
       </c>
@@ -7036,4 +7034,23 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE4306-2AF4-4E24-AF68-6E355AD32568}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.90625" style="50"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>